--- a/data/cpcrw-cores-picarro-mass-track.xlsx
+++ b/data/cpcrw-cores-picarro-mass-track.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="89">
   <si>
     <t>Core</t>
   </si>
@@ -47,19 +47,19 @@
     <t>Notes2</t>
   </si>
   <si>
+    <t>Ambient</t>
+  </si>
+  <si>
     <t>mass_only</t>
   </si>
   <si>
     <t>CPCRW</t>
   </si>
   <si>
-    <t>SF</t>
+    <t>CPCRW_90d_up_FAD_r1</t>
   </si>
   <si>
-    <t>Ambient</t>
-  </si>
-  <si>
-    <t>CPCRW_90d_up_FAD_r1</t>
+    <t>SF</t>
   </si>
   <si>
     <t>CPCRW_1000d_up_CW_r3</t>
@@ -437,10 +437,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2">
         <v>1.0</v>
@@ -452,7 +452,7 @@
         <v>261.77</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -480,10 +480,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>2.0</v>
@@ -495,7 +495,7 @@
         <v>316.17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -523,10 +523,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2">
         <v>3.0</v>
@@ -538,7 +538,7 @@
         <v>282.16</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -566,10 +566,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2">
         <v>4.0</v>
@@ -581,7 +581,7 @@
         <v>243.09</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -609,10 +609,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2">
         <v>5.0</v>
@@ -624,7 +624,7 @@
         <v>276.09</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -652,10 +652,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2">
         <v>6.0</v>
@@ -667,7 +667,7 @@
         <v>269.86</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -695,10 +695,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2">
         <v>8.0</v>
@@ -710,7 +710,7 @@
         <v>278.35</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -738,10 +738,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2">
         <v>9.0</v>
@@ -753,7 +753,7 @@
         <v>262.3</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -781,10 +781,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2">
         <v>10.0</v>
@@ -796,7 +796,7 @@
         <v>266.42</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -824,10 +824,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2">
         <v>11.0</v>
@@ -839,7 +839,7 @@
         <v>241.45</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -867,10 +867,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2">
         <v>13.0</v>
@@ -882,7 +882,7 @@
         <v>254.88</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -910,10 +910,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2">
         <v>14.0</v>
@@ -925,7 +925,7 @@
         <v>236.11</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -953,10 +953,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2">
         <v>15.0</v>
@@ -968,7 +968,7 @@
         <v>212.22</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -996,10 +996,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="2">
         <v>16.0</v>
@@ -1011,7 +1011,7 @@
         <v>227.31</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1039,10 +1039,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2">
         <v>17.0</v>
@@ -1054,7 +1054,7 @@
         <v>132.65</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1082,7 +1082,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>45</v>
@@ -1097,7 +1097,7 @@
         <v>0.0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1125,10 +1125,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" s="2">
         <v>18.0</v>
@@ -1140,7 +1140,7 @@
         <v>255.79</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1168,10 +1168,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2">
         <v>20.0</v>
@@ -1183,7 +1183,7 @@
         <v>293.62</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1211,10 +1211,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" s="2">
         <v>25.0</v>
@@ -1226,7 +1226,7 @@
         <v>281.46</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1254,10 +1254,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" s="2">
         <v>26.0</v>
@@ -1269,7 +1269,7 @@
         <v>223.14</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1297,10 +1297,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" s="2">
         <v>27.0</v>
@@ -1312,7 +1312,7 @@
         <v>202.97</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1340,10 +1340,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" s="2">
         <v>28.0</v>
@@ -1355,7 +1355,7 @@
         <v>252.64</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1383,10 +1383,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" s="2">
         <v>31.0</v>
@@ -1398,7 +1398,7 @@
         <v>214.95</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1426,10 +1426,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" s="2">
         <v>33.0</v>
@@ -1441,7 +1441,7 @@
         <v>258.95</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1469,10 +1469,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26" s="2">
         <v>34.0</v>
@@ -1484,7 +1484,7 @@
         <v>207.52</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1512,10 +1512,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27" s="2">
         <v>35.0</v>
@@ -1527,7 +1527,7 @@
         <v>172.65</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1555,10 +1555,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" s="2">
         <v>36.0</v>
@@ -1570,7 +1570,7 @@
         <v>199.41</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1598,10 +1598,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29" s="2">
         <v>37.0</v>
@@ -1613,7 +1613,7 @@
         <v>163.47</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1641,10 +1641,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" s="2">
         <v>38.0</v>
@@ -1656,7 +1656,7 @@
         <v>178.28</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1684,10 +1684,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" s="2">
         <v>39.0</v>
@@ -1699,7 +1699,7 @@
         <v>148.28</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1727,10 +1727,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" s="2">
         <v>40.0</v>
@@ -1742,7 +1742,7 @@
         <v>171.21</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1770,7 +1770,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>45</v>
@@ -1785,7 +1785,7 @@
         <v>0.0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1813,10 +1813,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" s="2">
         <v>42.0</v>
@@ -1828,7 +1828,7 @@
         <v>171.53</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -1856,10 +1856,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35" s="2">
         <v>44.0</v>
@@ -1871,7 +1871,7 @@
         <v>200.64</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1899,10 +1899,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" s="2">
         <v>46.0</v>
@@ -1914,7 +1914,7 @@
         <v>240.92</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -1942,10 +1942,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37" s="2">
         <v>48.0</v>
@@ -1957,7 +1957,7 @@
         <v>237.28</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -1985,10 +1985,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38" s="2">
         <v>49.0</v>
@@ -2000,7 +2000,7 @@
         <v>141.38</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -2028,10 +2028,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39" s="2">
         <v>50.0</v>
@@ -2043,7 +2043,7 @@
         <v>289.14</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -2071,10 +2071,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40" s="2">
         <v>51.0</v>
@@ -2086,7 +2086,7 @@
         <v>230.33</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -2114,10 +2114,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E41" s="2">
         <v>52.0</v>
@@ -2129,7 +2129,7 @@
         <v>304.76</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -2157,10 +2157,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42" s="2">
         <v>53.0</v>
@@ -2172,7 +2172,7 @@
         <v>229.84</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -2200,10 +2200,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43" s="2">
         <v>54.0</v>
@@ -2215,7 +2215,7 @@
         <v>145.49</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -2243,10 +2243,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>56</v>
@@ -2258,7 +2258,7 @@
         <v>255.52</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -2286,10 +2286,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E45" s="2">
         <v>55.0</v>
@@ -2301,7 +2301,7 @@
         <v>235.29</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -2329,10 +2329,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46" s="2">
         <v>56.0</v>
@@ -2344,7 +2344,7 @@
         <v>242.65</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -2372,10 +2372,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E47" s="2">
         <v>58.0</v>
@@ -2387,7 +2387,7 @@
         <v>255.29</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -2415,10 +2415,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48" s="2">
         <v>59.0</v>
@@ -2430,7 +2430,7 @@
         <v>255.13</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -2458,7 +2458,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>45</v>
@@ -2473,7 +2473,7 @@
         <v>0.0</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -2501,10 +2501,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50" s="2">
         <v>60.0</v>
@@ -2516,7 +2516,7 @@
         <v>258.34</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -2544,10 +2544,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E51" s="2">
         <v>61.0</v>
@@ -2559,7 +2559,7 @@
         <v>273.85</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -2587,10 +2587,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E52" s="2">
         <v>62.0</v>
@@ -2602,7 +2602,7 @@
         <v>242.05</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -2630,10 +2630,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E53" s="2">
         <v>63.0</v>
@@ -2645,7 +2645,7 @@
         <v>276.45</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -2673,10 +2673,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E54" s="2">
         <v>64.0</v>
@@ -2688,7 +2688,7 @@
         <v>269.79</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -2716,10 +2716,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E55" s="2">
         <v>65.0</v>
@@ -2731,7 +2731,7 @@
         <v>299.62</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -2759,10 +2759,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E56" s="2">
         <v>66.0</v>
@@ -2774,7 +2774,7 @@
         <v>308.24</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -2802,10 +2802,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E57" s="2">
         <v>69.0</v>
@@ -2817,7 +2817,7 @@
         <v>310.21</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -2845,10 +2845,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E58" s="2">
         <v>71.0</v>
@@ -2860,7 +2860,7 @@
         <v>263.69</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -2888,10 +2888,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E59" s="2">
         <v>72.0</v>
@@ -2903,7 +2903,7 @@
         <v>286.74</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -2931,10 +2931,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E60" s="2">
         <v>74.0</v>
@@ -2946,7 +2946,7 @@
         <v>375.94</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -2974,10 +2974,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E61" s="2">
         <v>75.0</v>
@@ -2989,7 +2989,7 @@
         <v>371.57</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -3017,10 +3017,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E62" s="2">
         <v>77.0</v>
@@ -3032,7 +3032,7 @@
         <v>260.31</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -3060,10 +3060,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E63" s="2">
         <v>79.0</v>
@@ -3075,7 +3075,7 @@
         <v>274.0</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -3103,10 +3103,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64" s="2">
         <v>82.0</v>
@@ -3118,7 +3118,7 @@
         <v>349.0</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -3146,7 +3146,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>45</v>
@@ -3161,7 +3161,7 @@
         <v>0.0</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -3189,10 +3189,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E66" s="2">
         <v>85.0</v>
@@ -3204,7 +3204,7 @@
         <v>236.74</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -3232,10 +3232,10 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E67" s="2">
         <v>86.0</v>
@@ -3247,7 +3247,7 @@
         <v>237.96</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -3275,7 +3275,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>45</v>
@@ -3290,7 +3290,7 @@
         <v>0.0</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -3321,7 +3321,7 @@
         <v>79</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E69" s="2">
         <v>1.0</v>
@@ -3333,7 +3333,7 @@
         <v>260.68</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -3362,7 +3362,7 @@
         <v>79</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E70" s="2">
         <v>2.0</v>
@@ -3374,7 +3374,7 @@
         <v>314.84</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -3403,7 +3403,7 @@
         <v>79</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E71" s="2">
         <v>3.0</v>
@@ -3415,7 +3415,7 @@
         <v>279.99</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -3444,7 +3444,7 @@
         <v>79</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E72" s="2">
         <v>4.0</v>
@@ -3456,7 +3456,7 @@
         <v>235.16</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -3485,7 +3485,7 @@
         <v>79</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E73" s="2">
         <v>5.0</v>
@@ -3497,7 +3497,7 @@
         <v>274.79</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -3526,7 +3526,7 @@
         <v>79</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E74" s="2">
         <v>6.0</v>
@@ -3538,7 +3538,7 @@
         <v>266.32</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -3567,7 +3567,7 @@
         <v>79</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E75" s="2">
         <v>8.0</v>
@@ -3579,7 +3579,7 @@
         <v>271.65</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -3608,7 +3608,7 @@
         <v>79</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E76" s="2">
         <v>9.0</v>
@@ -3620,7 +3620,7 @@
         <v>260.6</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -3649,7 +3649,7 @@
         <v>79</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E77" s="2">
         <v>10.0</v>
@@ -3661,7 +3661,7 @@
         <v>262.3</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -3690,7 +3690,7 @@
         <v>79</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E78" s="2">
         <v>11.0</v>
@@ -3702,7 +3702,7 @@
         <v>237.9</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -3731,7 +3731,7 @@
         <v>79</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E79" s="2">
         <v>13.0</v>
@@ -3743,7 +3743,7 @@
         <v>244.41</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -3772,7 +3772,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E80" s="2">
         <v>14.0</v>
@@ -3784,7 +3784,7 @@
         <v>233.77</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -3813,7 +3813,7 @@
         <v>79</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E81" s="2">
         <v>15.0</v>
@@ -3825,7 +3825,7 @@
         <v>244.43</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -3854,7 +3854,7 @@
         <v>79</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E82" s="2">
         <v>16.0</v>
@@ -3866,7 +3866,7 @@
         <v>219.14</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -3894,7 +3894,7 @@
         <v>79</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E83" s="2">
         <v>17.0</v>
@@ -3906,7 +3906,7 @@
         <v>128.12</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -3949,7 +3949,7 @@
         <v>0.0</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
@@ -3980,7 +3980,7 @@
         <v>79</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E85" s="2">
         <v>18.0</v>
@@ -3992,7 +3992,7 @@
         <v>254.55</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
@@ -4021,7 +4021,7 @@
         <v>79</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E86" s="2">
         <v>20.0</v>
@@ -4033,7 +4033,7 @@
         <v>284.97</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
@@ -4062,7 +4062,7 @@
         <v>79</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E87" s="2">
         <v>25.0</v>
@@ -4074,7 +4074,7 @@
         <v>280.7</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
@@ -4103,7 +4103,7 @@
         <v>79</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E88" s="2">
         <v>26.0</v>
@@ -4115,7 +4115,7 @@
         <v>219.12</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
@@ -4144,7 +4144,7 @@
         <v>79</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E89" s="2">
         <v>27.0</v>
@@ -4156,7 +4156,7 @@
         <v>198.82</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
@@ -4185,7 +4185,7 @@
         <v>79</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E90" s="2">
         <v>28.0</v>
@@ -4197,7 +4197,7 @@
         <v>245.28</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
@@ -4226,7 +4226,7 @@
         <v>79</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E91" s="2">
         <v>31.0</v>
@@ -4238,7 +4238,7 @@
         <v>205.85</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
@@ -4267,7 +4267,7 @@
         <v>79</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E92" s="2">
         <v>33.0</v>
@@ -4279,7 +4279,7 @@
         <v>254.69</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
@@ -4308,7 +4308,7 @@
         <v>79</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E93" s="2">
         <v>34.0</v>
@@ -4320,7 +4320,7 @@
         <v>195.6</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
@@ -4349,7 +4349,7 @@
         <v>79</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E94" s="2">
         <v>35.0</v>
@@ -4361,7 +4361,7 @@
         <v>164.37</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
@@ -4390,7 +4390,7 @@
         <v>79</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E95" s="2">
         <v>36.0</v>
@@ -4402,7 +4402,7 @@
         <v>194.85</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -4431,7 +4431,7 @@
         <v>79</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E96" s="2">
         <v>37.0</v>
@@ -4443,7 +4443,7 @@
         <v>158.32</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
@@ -4472,7 +4472,7 @@
         <v>79</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E97" s="2">
         <v>38.0</v>
@@ -4484,7 +4484,7 @@
         <v>176.49</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
@@ -4513,7 +4513,7 @@
         <v>79</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E98" s="2">
         <v>39.0</v>
@@ -4525,7 +4525,7 @@
         <v>141.09</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
@@ -4554,7 +4554,7 @@
         <v>79</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E99" s="2">
         <v>40.0</v>
@@ -4566,7 +4566,7 @@
         <v>170.2</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
@@ -4609,7 +4609,7 @@
         <v>0.0</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
@@ -4640,7 +4640,7 @@
         <v>79</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E101" s="2">
         <v>42.0</v>
@@ -4652,7 +4652,7 @@
         <v>165.67</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
@@ -4681,7 +4681,7 @@
         <v>79</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E102" s="2">
         <v>44.0</v>
@@ -4693,7 +4693,7 @@
         <v>192.97</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
@@ -4722,7 +4722,7 @@
         <v>79</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E103" s="2">
         <v>46.0</v>
@@ -4734,7 +4734,7 @@
         <v>232.96</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
@@ -4763,7 +4763,7 @@
         <v>79</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E104" s="2">
         <v>48.0</v>
@@ -4775,7 +4775,7 @@
         <v>234.06</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
@@ -4804,7 +4804,7 @@
         <v>79</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E105" s="2">
         <v>49.0</v>
@@ -4816,7 +4816,7 @@
         <v>137.61</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
@@ -4845,7 +4845,7 @@
         <v>79</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E106" s="2">
         <v>50.0</v>
@@ -4857,7 +4857,7 @@
         <v>285.44</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
@@ -4886,7 +4886,7 @@
         <v>79</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E107" s="2">
         <v>51.0</v>
@@ -4898,7 +4898,7 @@
         <v>199.04</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
@@ -4927,7 +4927,7 @@
         <v>79</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E108" s="2">
         <v>52.0</v>
@@ -4939,7 +4939,7 @@
         <v>287.42</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
@@ -4968,7 +4968,7 @@
         <v>79</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E109" s="2">
         <v>53.0</v>
@@ -4980,7 +4980,7 @@
         <v>226.66</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
@@ -5009,7 +5009,7 @@
         <v>79</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E110" s="2">
         <v>54.0</v>
@@ -5021,7 +5021,7 @@
         <v>138.8</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
@@ -5050,7 +5050,7 @@
         <v>79</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>56</v>
@@ -5062,7 +5062,7 @@
         <v>253.98</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
@@ -5091,7 +5091,7 @@
         <v>79</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E112" s="2">
         <v>55.0</v>
@@ -5103,7 +5103,7 @@
         <v>232.08</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
@@ -5132,7 +5132,7 @@
         <v>79</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E113" s="2">
         <v>56.0</v>
@@ -5144,7 +5144,7 @@
         <v>240.19</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
@@ -5173,7 +5173,7 @@
         <v>79</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E114" s="2">
         <v>58.0</v>
@@ -5185,7 +5185,7 @@
         <v>251.15</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
@@ -5214,7 +5214,7 @@
         <v>79</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E115" s="2">
         <v>59.0</v>
@@ -5226,7 +5226,7 @@
         <v>252.66</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
@@ -5269,7 +5269,7 @@
         <v>0.0</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
@@ -5300,7 +5300,7 @@
         <v>79</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E117" s="2">
         <v>60.0</v>
@@ -5312,7 +5312,7 @@
         <v>254.39</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
@@ -5341,7 +5341,7 @@
         <v>79</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E118" s="2">
         <v>61.0</v>
@@ -5353,7 +5353,7 @@
         <v>269.87</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
@@ -5382,7 +5382,7 @@
         <v>79</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E119" s="2">
         <v>62.0</v>
@@ -5394,7 +5394,7 @@
         <v>235.26</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
@@ -5423,7 +5423,7 @@
         <v>79</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E120" s="2">
         <v>63.0</v>
@@ -5435,7 +5435,7 @@
         <v>269.15</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
@@ -5464,7 +5464,7 @@
         <v>79</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E121" s="2">
         <v>64.0</v>
@@ -5476,7 +5476,7 @@
         <v>266.63</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
@@ -5505,7 +5505,7 @@
         <v>79</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E122" s="2">
         <v>65.0</v>
@@ -5517,7 +5517,7 @@
         <v>297.24</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
@@ -5546,7 +5546,7 @@
         <v>79</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E123" s="2">
         <v>66.0</v>
@@ -5558,7 +5558,7 @@
         <v>297.32</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
@@ -5587,7 +5587,7 @@
         <v>79</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E124" s="2">
         <v>69.0</v>
@@ -5599,7 +5599,7 @@
         <v>305.35</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
@@ -5628,7 +5628,7 @@
         <v>79</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E125" s="2">
         <v>71.0</v>
@@ -5640,7 +5640,7 @@
         <v>258.1</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
@@ -5669,7 +5669,7 @@
         <v>79</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E126" s="2">
         <v>72.0</v>
@@ -5681,7 +5681,7 @@
         <v>278.88</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
@@ -5710,7 +5710,7 @@
         <v>79</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E127" s="2">
         <v>74.0</v>
@@ -5722,7 +5722,7 @@
         <v>362.34</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>80</v>
@@ -5753,7 +5753,7 @@
         <v>79</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E128" s="2">
         <v>75.0</v>
@@ -5765,7 +5765,7 @@
         <v>353.08</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>81</v>
@@ -5796,7 +5796,7 @@
         <v>79</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E129" s="2">
         <v>77.0</v>
@@ -5808,7 +5808,7 @@
         <v>257.27</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
@@ -5837,7 +5837,7 @@
         <v>79</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E130" s="2">
         <v>79.0</v>
@@ -5849,7 +5849,7 @@
         <v>259.45</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
@@ -5878,7 +5878,7 @@
         <v>79</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E131" s="2">
         <v>82.0</v>
@@ -5890,7 +5890,7 @@
         <v>341.4</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
@@ -5933,7 +5933,7 @@
         <v>0.0</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
@@ -5964,7 +5964,7 @@
         <v>79</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E133" s="2">
         <v>85.0</v>
@@ -5976,7 +5976,7 @@
         <v>229.71</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
@@ -6005,7 +6005,7 @@
         <v>79</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E134" s="2">
         <v>86.0</v>
@@ -6017,7 +6017,7 @@
         <v>234.9</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
@@ -6060,7 +6060,7 @@
         <v>0.0</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
@@ -6091,7 +6091,7 @@
         <v>79</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E136" s="2">
         <v>65.0</v>
@@ -6103,7 +6103,7 @@
         <v>244.52</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
@@ -6132,7 +6132,7 @@
         <v>79</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E137" s="2">
         <v>61.0</v>
@@ -6144,7 +6144,7 @@
         <v>190.13</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
@@ -6173,7 +6173,7 @@
         <v>79</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E138" s="2">
         <v>64.0</v>
@@ -6185,7 +6185,7 @@
         <v>204.53</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
@@ -6214,7 +6214,7 @@
         <v>79</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E139" s="2">
         <v>60.0</v>
@@ -6226,7 +6226,7 @@
         <v>211.03</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
@@ -6255,7 +6255,7 @@
         <v>79</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E140" s="2">
         <v>63.0</v>
@@ -6267,7 +6267,7 @@
         <v>197.34</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
@@ -6296,7 +6296,7 @@
         <v>79</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E141" s="2">
         <v>69.0</v>
@@ -6308,7 +6308,7 @@
         <v>257.12</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
@@ -6337,7 +6337,7 @@
         <v>79</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E142" s="2">
         <v>66.0</v>
@@ -6349,7 +6349,7 @@
         <v>248.57</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
@@ -6378,7 +6378,7 @@
         <v>79</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E143" s="2">
         <v>62.0</v>
@@ -6390,7 +6390,7 @@
         <v>154.81</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
@@ -6419,7 +6419,7 @@
         <v>79</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E144" s="2">
         <v>71.0</v>
@@ -6431,7 +6431,7 @@
         <v>199.19</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
@@ -6460,7 +6460,7 @@
         <v>79</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E145" s="2">
         <v>75.0</v>
@@ -6472,7 +6472,7 @@
         <v>318.0</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>82</v>
@@ -6503,7 +6503,7 @@
         <v>79</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E146" s="2">
         <v>85.0</v>
@@ -6515,7 +6515,7 @@
         <v>213.5</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
@@ -6544,7 +6544,7 @@
         <v>79</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E147" s="2">
         <v>72.0</v>
@@ -6556,7 +6556,7 @@
         <v>243.8</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
@@ -6585,7 +6585,7 @@
         <v>79</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E148" s="2">
         <v>74.0</v>
@@ -6597,7 +6597,7 @@
         <v>321.29</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
@@ -6626,7 +6626,7 @@
         <v>79</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E149" s="2">
         <v>79.0</v>
@@ -6638,7 +6638,7 @@
         <v>197.56</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
@@ -6667,7 +6667,7 @@
         <v>79</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E150" s="2">
         <v>82.0</v>
@@ -6679,7 +6679,7 @@
         <v>288.27</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
@@ -6718,7 +6718,7 @@
       </c>
       <c r="G151" s="2"/>
       <c r="H151" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
@@ -6749,7 +6749,7 @@
         <v>79</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E152" s="1">
         <v>59.0</v>
@@ -6761,7 +6761,7 @@
         <v>182.45</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
@@ -6790,7 +6790,7 @@
         <v>79</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E153" s="1">
         <v>55.0</v>
@@ -6802,7 +6802,7 @@
         <v>182.24</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
@@ -6831,7 +6831,7 @@
         <v>79</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E154" s="1">
         <v>56.0</v>
@@ -6843,7 +6843,7 @@
         <v>193.36</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -6872,7 +6872,7 @@
         <v>79</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E155" s="1">
         <v>52.0</v>
@@ -6884,7 +6884,7 @@
         <v>266.2</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
@@ -6913,7 +6913,7 @@
         <v>79</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E156" s="1">
         <v>58.0</v>
@@ -6925,7 +6925,7 @@
         <v>200.98</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
@@ -6954,7 +6954,7 @@
         <v>79</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E157" s="1">
         <v>50.0</v>
@@ -6966,7 +6966,7 @@
         <v>259.98</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
@@ -6995,7 +6995,7 @@
         <v>79</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E158" s="1">
         <v>42.0</v>
@@ -7007,7 +7007,7 @@
         <v>148.7</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
@@ -7036,7 +7036,7 @@
         <v>79</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E159" s="1">
         <v>46.0</v>
@@ -7048,7 +7048,7 @@
         <v>204.56</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
@@ -7077,7 +7077,7 @@
         <v>79</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E160" s="1">
         <v>44.0</v>
@@ -7089,7 +7089,7 @@
         <v>166.78</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
@@ -7118,7 +7118,7 @@
         <v>79</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E161" s="1">
         <v>49.0</v>
@@ -7130,7 +7130,7 @@
         <v>110.04</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -7159,7 +7159,7 @@
         <v>79</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E162" s="1">
         <v>51.0</v>
@@ -7171,7 +7171,7 @@
         <v>174.51</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
@@ -7200,7 +7200,7 @@
         <v>79</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E163" s="1">
         <v>53.0</v>
@@ -7212,7 +7212,7 @@
         <v>158.6</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
@@ -7241,7 +7241,7 @@
         <v>79</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E164" s="1">
         <v>54.0</v>
@@ -7253,7 +7253,7 @@
         <v>105.49</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
@@ -7282,7 +7282,7 @@
         <v>79</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E165" s="1">
         <v>48.0</v>
@@ -7294,7 +7294,7 @@
         <v>201.81</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
@@ -7323,7 +7323,7 @@
         <v>79</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>56</v>
@@ -7335,7 +7335,7 @@
         <v>213.06</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="G167" s="2"/>
       <c r="H167" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
@@ -7405,7 +7405,7 @@
         <v>79</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E168" s="1">
         <v>38.0</v>
@@ -7417,7 +7417,7 @@
         <v>147.82</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -7446,7 +7446,7 @@
         <v>79</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E169" s="1">
         <v>35.0</v>
@@ -7458,7 +7458,7 @@
         <v>155.13</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
@@ -7487,7 +7487,7 @@
         <v>79</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E170" s="1">
         <v>40.0</v>
@@ -7499,7 +7499,7 @@
         <v>140.5</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
@@ -7528,7 +7528,7 @@
         <v>79</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E171" s="1">
         <v>18.0</v>
@@ -7540,7 +7540,7 @@
         <v>224.0</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
@@ -7569,7 +7569,7 @@
         <v>79</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E172" s="1">
         <v>26.0</v>
@@ -7581,7 +7581,7 @@
         <v>199.2</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
@@ -7610,7 +7610,7 @@
         <v>79</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E173" s="1">
         <v>39.0</v>
@@ -7622,7 +7622,7 @@
         <v>122.62</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
@@ -7651,7 +7651,7 @@
         <v>79</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E174" s="1">
         <v>36.0</v>
@@ -7663,7 +7663,7 @@
         <v>174.31</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
@@ -7692,7 +7692,7 @@
         <v>79</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E175" s="1">
         <v>31.0</v>
@@ -7704,7 +7704,7 @@
         <v>187.42</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
@@ -7733,7 +7733,7 @@
         <v>79</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E176" s="1">
         <v>33.0</v>
@@ -7745,7 +7745,7 @@
         <v>226.08</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
@@ -7774,7 +7774,7 @@
         <v>79</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E177" s="1">
         <v>37.0</v>
@@ -7786,7 +7786,7 @@
         <v>142.76</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
@@ -7815,7 +7815,7 @@
         <v>79</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E178" s="1">
         <v>34.0</v>
@@ -7827,7 +7827,7 @@
         <v>179.03</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
@@ -7856,7 +7856,7 @@
         <v>79</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E179" s="1">
         <v>27.0</v>
@@ -7868,7 +7868,7 @@
         <v>182.75</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
@@ -7897,7 +7897,7 @@
         <v>79</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E180" s="1">
         <v>20.0</v>
@@ -7909,7 +7909,7 @@
         <v>274.23</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
@@ -7938,7 +7938,7 @@
         <v>79</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E181" s="1">
         <v>28.0</v>
@@ -7950,7 +7950,7 @@
         <v>219.27</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
@@ -7979,7 +7979,7 @@
         <v>79</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E182" s="1">
         <v>25.0</v>
@@ -7991,7 +7991,7 @@
         <v>251.64</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="G183" s="2"/>
       <c r="H183" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
@@ -8063,7 +8063,7 @@
         <v>79</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E184" s="1">
         <v>4.0</v>
@@ -8075,7 +8075,7 @@
         <v>220.88</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
@@ -8104,7 +8104,7 @@
         <v>79</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E185" s="1">
         <v>2.0</v>
@@ -8116,7 +8116,7 @@
         <v>295.16</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
@@ -8145,7 +8145,7 @@
         <v>79</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E186" s="1">
         <v>1.0</v>
@@ -8157,7 +8157,7 @@
         <v>244.36</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
@@ -8186,7 +8186,7 @@
         <v>79</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E187" s="1">
         <v>6.0</v>
@@ -8198,7 +8198,7 @@
         <v>250.63</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
@@ -8227,7 +8227,7 @@
         <v>79</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E188" s="1">
         <v>17.0</v>
@@ -8239,7 +8239,7 @@
         <v>111.3</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
@@ -8268,7 +8268,7 @@
         <v>79</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E189" s="1">
         <v>16.0</v>
@@ -8280,7 +8280,7 @@
         <v>204.59</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
@@ -8309,7 +8309,7 @@
         <v>79</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E190" s="1">
         <v>9.0</v>
@@ -8321,7 +8321,7 @@
         <v>239.68</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
@@ -8350,7 +8350,7 @@
         <v>79</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E191" s="1">
         <v>15.0</v>
@@ -8362,7 +8362,7 @@
         <v>191.23</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
@@ -8391,7 +8391,7 @@
         <v>79</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E192" s="1">
         <v>10.0</v>
@@ -8403,7 +8403,7 @@
         <v>245.38</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
@@ -8432,7 +8432,7 @@
         <v>79</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E193" s="1">
         <v>11.0</v>
@@ -8444,7 +8444,7 @@
         <v>217.28</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
@@ -8473,7 +8473,7 @@
         <v>79</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E194" s="1">
         <v>5.0</v>
@@ -8485,7 +8485,7 @@
         <v>258.99</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
@@ -8514,7 +8514,7 @@
         <v>79</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E195" s="1">
         <v>13.0</v>
@@ -8526,7 +8526,7 @@
         <v>227.36</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
@@ -8555,7 +8555,7 @@
         <v>79</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E196" s="1">
         <v>14.0</v>
@@ -8567,7 +8567,7 @@
         <v>215.03</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
@@ -8596,7 +8596,7 @@
         <v>79</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E197" s="1">
         <v>8.0</v>
@@ -8608,7 +8608,7 @@
         <v>254.8</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
@@ -8637,7 +8637,7 @@
         <v>79</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E198" s="1">
         <v>3.0</v>
@@ -8649,7 +8649,7 @@
         <v>260.22</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
@@ -8690,7 +8690,7 @@
       </c>
       <c r="G199" s="2"/>
       <c r="H199" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
@@ -8721,7 +8721,7 @@
         <v>79</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E200" s="1">
         <v>77.0</v>
@@ -8733,7 +8733,7 @@
         <v>178.9</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
@@ -8762,7 +8762,7 @@
         <v>79</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E201" s="1">
         <v>86.0</v>
@@ -8774,7 +8774,7 @@
         <v>217.26</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="G202" s="2"/>
       <c r="H202" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
@@ -8844,7 +8844,7 @@
         <v>79</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E203" s="1">
         <v>3.0</v>
@@ -8887,7 +8887,7 @@
         <v>79</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E204" s="1">
         <v>5.0</v>
@@ -8928,7 +8928,7 @@
         <v>79</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E205" s="1">
         <v>86.0</v>
@@ -8969,7 +8969,7 @@
         <v>79</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E206" s="1">
         <v>8.0</v>
@@ -9010,7 +9010,7 @@
         <v>79</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E207" s="1">
         <v>9.0</v>
@@ -9051,7 +9051,7 @@
         <v>79</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E208" s="1">
         <v>13.0</v>
@@ -9092,7 +9092,7 @@
         <v>79</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E209" s="1">
         <v>16.0</v>
@@ -9133,7 +9133,7 @@
         <v>79</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E210" s="1">
         <v>11.0</v>
@@ -9174,7 +9174,7 @@
         <v>79</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E211" s="1">
         <v>77.0</v>
@@ -9215,7 +9215,7 @@
         <v>79</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E212" s="1">
         <v>14.0</v>
@@ -9256,7 +9256,7 @@
         <v>79</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E213" s="1">
         <v>2.0</v>
@@ -9297,7 +9297,7 @@
         <v>79</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E214" s="1">
         <v>10.0</v>
@@ -9338,7 +9338,7 @@
         <v>79</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E215" s="1">
         <v>6.0</v>
@@ -9379,7 +9379,7 @@
         <v>79</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E216" s="1">
         <v>4.0</v>
@@ -9420,7 +9420,7 @@
         <v>79</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E217" s="1">
         <v>17.0</v>
@@ -9502,7 +9502,7 @@
         <v>79</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E219" s="1">
         <v>75.0</v>
@@ -9543,7 +9543,7 @@
         <v>79</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E220" s="1">
         <v>72.0</v>
@@ -9584,7 +9584,7 @@
         <v>79</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E221" s="1">
         <v>66.0</v>
@@ -9625,7 +9625,7 @@
         <v>79</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E222" s="1">
         <v>64.0</v>
@@ -9666,7 +9666,7 @@
         <v>79</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E223" s="1">
         <v>71.0</v>
@@ -9707,7 +9707,7 @@
         <v>79</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E224" s="1">
         <v>62.0</v>
@@ -9748,7 +9748,7 @@
         <v>79</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E225" s="1">
         <v>74.0</v>
@@ -9789,7 +9789,7 @@
         <v>79</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E226" s="1">
         <v>61.0</v>
@@ -9830,7 +9830,7 @@
         <v>79</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E227" s="1">
         <v>60.0</v>
@@ -9871,7 +9871,7 @@
         <v>79</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E228" s="1">
         <v>85.0</v>
@@ -9912,7 +9912,7 @@
         <v>79</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E229" s="1">
         <v>69.0</v>
@@ -9953,7 +9953,7 @@
         <v>79</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E230" s="1">
         <v>65.0</v>
@@ -9994,7 +9994,7 @@
         <v>79</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E231" s="1">
         <v>63.0</v>
@@ -10035,7 +10035,7 @@
         <v>79</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E232" s="1">
         <v>82.0</v>
@@ -10076,7 +10076,7 @@
         <v>79</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E233" s="1">
         <v>79.0</v>
@@ -10158,7 +10158,7 @@
         <v>79</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E235" s="1">
         <v>51.0</v>
@@ -10199,7 +10199,7 @@
         <v>79</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E236" s="1">
         <v>58.0</v>
@@ -10240,7 +10240,7 @@
         <v>79</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E237" s="1">
         <v>49.0</v>
@@ -10281,7 +10281,7 @@
         <v>79</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E238" s="1">
         <v>48.0</v>
@@ -10322,7 +10322,7 @@
         <v>79</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E239" s="1">
         <v>52.0</v>
@@ -10363,7 +10363,7 @@
         <v>79</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E240" s="1">
         <v>56.0</v>
@@ -10404,7 +10404,7 @@
         <v>79</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E241" s="1">
         <v>50.0</v>
@@ -10445,7 +10445,7 @@
         <v>79</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>56</v>
@@ -10486,7 +10486,7 @@
         <v>79</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E243" s="1">
         <v>55.0</v>
@@ -10527,7 +10527,7 @@
         <v>79</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E244" s="1">
         <v>42.0</v>
@@ -10568,7 +10568,7 @@
         <v>79</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E245" s="1">
         <v>44.0</v>
@@ -10609,7 +10609,7 @@
         <v>79</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E246" s="1">
         <v>54.0</v>
@@ -10650,7 +10650,7 @@
         <v>79</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E247" s="1">
         <v>59.0</v>
@@ -10691,7 +10691,7 @@
         <v>79</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E248" s="1">
         <v>53.0</v>
@@ -10732,7 +10732,7 @@
         <v>79</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E249" s="1">
         <v>46.0</v>
@@ -10816,7 +10816,7 @@
         <v>79</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E251" s="1">
         <v>1.0</v>
@@ -10857,7 +10857,7 @@
         <v>79</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E252" s="1">
         <v>15.0</v>
@@ -10939,7 +10939,7 @@
         <v>79</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E254" s="1">
         <v>64.0</v>
@@ -10951,7 +10951,7 @@
         <v>175.11</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I254" s="2"/>
       <c r="J254" s="2"/>
@@ -10980,7 +10980,7 @@
         <v>79</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E255" s="1">
         <v>69.0</v>
@@ -10992,7 +10992,7 @@
         <v>228.04</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I255" s="2"/>
       <c r="J255" s="2"/>
@@ -11021,7 +11021,7 @@
         <v>79</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E256" s="1">
         <v>85.0</v>
@@ -11033,7 +11033,7 @@
         <v>202.0</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I256" s="2"/>
       <c r="J256" s="2"/>
@@ -11062,7 +11062,7 @@
         <v>79</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E257" s="1">
         <v>72.0</v>
@@ -11074,7 +11074,7 @@
         <v>222.69</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I257" s="2"/>
       <c r="J257" s="2"/>
@@ -11103,7 +11103,7 @@
         <v>79</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E258" s="1">
         <v>79.0</v>
@@ -11115,7 +11115,7 @@
         <v>145.82</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I258" s="2"/>
       <c r="J258" s="2"/>
@@ -11144,7 +11144,7 @@
         <v>79</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E259" s="1">
         <v>61.0</v>
@@ -11156,7 +11156,7 @@
         <v>148.26</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I259" s="2"/>
       <c r="J259" s="2"/>
@@ -11185,7 +11185,7 @@
         <v>79</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E260" s="1">
         <v>63.0</v>
@@ -11197,7 +11197,7 @@
         <v>176.78</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I260" s="2"/>
       <c r="J260" s="2"/>
@@ -11226,7 +11226,7 @@
         <v>79</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E261" s="1">
         <v>75.0</v>
@@ -11238,7 +11238,7 @@
         <v>293.22</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I261" s="2"/>
       <c r="J261" s="2"/>
@@ -11267,7 +11267,7 @@
         <v>79</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E262" s="1">
         <v>60.0</v>
@@ -11279,7 +11279,7 @@
         <v>176.86</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I262" s="2"/>
       <c r="J262" s="2"/>
@@ -11308,7 +11308,7 @@
         <v>79</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E263" s="1">
         <v>71.0</v>
@@ -11320,7 +11320,7 @@
         <v>182.76</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I263" s="2"/>
       <c r="J263" s="2"/>
@@ -11349,7 +11349,7 @@
         <v>79</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E264" s="1">
         <v>74.0</v>
@@ -11361,7 +11361,7 @@
         <v>296.05</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I264" s="2"/>
       <c r="J264" s="2"/>
@@ -11390,7 +11390,7 @@
         <v>79</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E265" s="1">
         <v>82.0</v>
@@ -11402,7 +11402,7 @@
         <v>261.79</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I265" s="2"/>
       <c r="J265" s="2"/>
@@ -11431,7 +11431,7 @@
         <v>79</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E266" s="1">
         <v>62.0</v>
@@ -11443,7 +11443,7 @@
         <v>122.95</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I266" s="2"/>
       <c r="J266" s="2"/>
@@ -11472,7 +11472,7 @@
         <v>79</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E267" s="1">
         <v>66.0</v>
@@ -11484,7 +11484,7 @@
         <v>204.98</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I267" s="2"/>
       <c r="J267" s="2"/>
@@ -11513,7 +11513,7 @@
         <v>79</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E268" s="1">
         <v>65.0</v>
@@ -11525,7 +11525,7 @@
         <v>209.88</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I268" s="2"/>
       <c r="J268" s="2"/>
@@ -11566,7 +11566,7 @@
         <v>0.0</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I269" s="2"/>
       <c r="J269" s="2"/>
@@ -11597,7 +11597,7 @@
         <v>79</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E270" s="1">
         <v>15.0</v>
@@ -11609,7 +11609,7 @@
         <v>170.19</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I270" s="2"/>
       <c r="J270" s="2"/>
@@ -11638,7 +11638,7 @@
         <v>79</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E271" s="1">
         <v>1.0</v>
@@ -11650,7 +11650,7 @@
         <v>225.75</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I271" s="2"/>
       <c r="J271" s="2"/>
@@ -11679,7 +11679,7 @@
         <v>79</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E272" s="1">
         <v>59.0</v>
@@ -11691,7 +11691,7 @@
         <v>145.09</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I272" s="2"/>
       <c r="J272" s="2"/>
@@ -11720,7 +11720,7 @@
         <v>79</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E273" s="1">
         <v>48.0</v>
@@ -11732,7 +11732,7 @@
         <v>174.78</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I273" s="2"/>
       <c r="J273" s="2"/>
@@ -11761,7 +11761,7 @@
         <v>79</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E274" s="1">
         <v>44.0</v>
@@ -11773,7 +11773,7 @@
         <v>136.95</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I274" s="2"/>
       <c r="J274" s="2"/>
@@ -11802,7 +11802,7 @@
         <v>79</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E275" s="9" t="s">
         <v>56</v>
@@ -11814,7 +11814,7 @@
         <v>150.29</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I275" s="2"/>
       <c r="J275" s="2"/>
@@ -11843,7 +11843,7 @@
         <v>79</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E276" s="1">
         <v>51.0</v>
@@ -11855,7 +11855,7 @@
         <v>154.55</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I276" s="2"/>
       <c r="J276" s="2"/>
@@ -11884,7 +11884,7 @@
         <v>79</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E277" s="1">
         <v>54.0</v>
@@ -11896,7 +11896,7 @@
         <v>75.12</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I277" s="2"/>
       <c r="J277" s="2"/>
@@ -11925,7 +11925,7 @@
         <v>79</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E278" s="1">
         <v>58.0</v>
@@ -11937,7 +11937,7 @@
         <v>166.72</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I278" s="2"/>
       <c r="J278" s="2"/>
@@ -11966,7 +11966,7 @@
         <v>79</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E279" s="1">
         <v>42.0</v>
@@ -11978,7 +11978,7 @@
         <v>106.86</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I279" s="2"/>
       <c r="J279" s="2"/>
@@ -12007,7 +12007,7 @@
         <v>79</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E280" s="1">
         <v>56.0</v>
@@ -12019,7 +12019,7 @@
         <v>144.56</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I280" s="2"/>
       <c r="J280" s="2"/>
@@ -12048,7 +12048,7 @@
         <v>79</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E281" s="1">
         <v>49.0</v>
@@ -12060,7 +12060,7 @@
         <v>82.44</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I281" s="2"/>
       <c r="J281" s="2"/>
@@ -12089,7 +12089,7 @@
         <v>79</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E282" s="1">
         <v>46.0</v>
@@ -12101,7 +12101,7 @@
         <v>180.65</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I282" s="2"/>
       <c r="J282" s="2"/>
@@ -12130,7 +12130,7 @@
         <v>79</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E283" s="1">
         <v>52.0</v>
@@ -12142,7 +12142,7 @@
         <v>240.14</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I283" s="2"/>
       <c r="J283" s="2"/>
@@ -12171,7 +12171,7 @@
         <v>79</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E284" s="1">
         <v>50.0</v>
@@ -12183,7 +12183,7 @@
         <v>220.72</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I284" s="2"/>
       <c r="J284" s="2"/>
@@ -12211,7 +12211,9 @@
       <c r="C285" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D285" s="2"/>
+      <c r="D285" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E285" s="1">
         <v>0.0</v>
       </c>
@@ -12222,7 +12224,7 @@
         <v>0.0</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I285" s="2"/>
       <c r="J285" s="2"/>
@@ -12253,7 +12255,7 @@
         <v>79</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E286" s="1">
         <v>8.0</v>
@@ -12265,7 +12267,7 @@
         <v>233.82</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I286" s="2"/>
       <c r="J286" s="2"/>
@@ -12294,7 +12296,7 @@
         <v>79</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E287" s="1">
         <v>14.0</v>
@@ -12306,7 +12308,7 @@
         <v>190.51</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I287" s="2"/>
       <c r="J287" s="2"/>
@@ -12335,7 +12337,7 @@
         <v>79</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E288" s="1">
         <v>3.0</v>
@@ -12347,7 +12349,7 @@
         <v>242.95</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I288" s="2"/>
       <c r="J288" s="2"/>
@@ -12376,7 +12378,7 @@
         <v>79</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E289" s="1">
         <v>16.0</v>
@@ -12388,7 +12390,7 @@
         <v>181.67</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I289" s="2"/>
       <c r="J289" s="2"/>
@@ -12417,7 +12419,7 @@
         <v>79</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E290" s="1">
         <v>2.0</v>
@@ -12429,7 +12431,7 @@
         <v>283.98</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I290" s="2"/>
       <c r="J290" s="2"/>
@@ -12458,7 +12460,7 @@
         <v>79</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E291" s="1">
         <v>5.0</v>
@@ -12470,7 +12472,7 @@
         <v>224.46</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I291" s="2"/>
       <c r="J291" s="2"/>
@@ -12499,7 +12501,7 @@
         <v>79</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E292" s="1">
         <v>77.0</v>
@@ -12511,7 +12513,7 @@
         <v>148.06</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I292" s="2"/>
       <c r="J292" s="2"/>
@@ -12540,7 +12542,7 @@
         <v>79</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E293" s="1">
         <v>11.0</v>
@@ -12552,7 +12554,7 @@
         <v>191.37</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I293" s="2"/>
       <c r="J293" s="2"/>
@@ -12581,7 +12583,7 @@
         <v>79</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E294" s="1">
         <v>10.0</v>
@@ -12593,7 +12595,7 @@
         <v>217.84</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I294" s="2"/>
       <c r="J294" s="2"/>
@@ -12622,7 +12624,7 @@
         <v>79</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E295" s="1">
         <v>4.0</v>
@@ -12634,7 +12636,7 @@
         <v>208.98</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I295" s="2"/>
       <c r="J295" s="2"/>
@@ -12663,7 +12665,7 @@
         <v>79</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E296" s="1">
         <v>86.0</v>
@@ -12675,7 +12677,7 @@
         <v>213.68</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I296" s="2"/>
       <c r="J296" s="2"/>
@@ -12704,7 +12706,7 @@
         <v>79</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E297" s="1">
         <v>9.0</v>
@@ -12716,7 +12718,7 @@
         <v>217.51</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I297" s="2"/>
       <c r="J297" s="2"/>
@@ -12745,7 +12747,7 @@
         <v>79</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E298" s="1">
         <v>17.0</v>
@@ -12757,7 +12759,7 @@
         <v>94.0</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I298" s="2"/>
       <c r="J298" s="2"/>
@@ -12786,7 +12788,7 @@
         <v>79</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E299" s="1">
         <v>13.0</v>
@@ -12798,7 +12800,7 @@
         <v>203.58</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I299" s="2"/>
       <c r="J299" s="2"/>
@@ -12827,7 +12829,7 @@
         <v>79</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E300" s="1">
         <v>6.0</v>
@@ -12839,7 +12841,7 @@
         <v>227.15</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I300" s="2"/>
       <c r="J300" s="2"/>
@@ -12880,7 +12882,7 @@
         <v>0.0</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I301" s="2"/>
       <c r="J301" s="2"/>
@@ -12911,7 +12913,7 @@
         <v>79</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E302" s="1">
         <v>53.0</v>
@@ -12923,7 +12925,7 @@
         <v>121.15</v>
       </c>
       <c r="H302" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I302" s="2"/>
       <c r="J302" s="2"/>
@@ -12952,7 +12954,7 @@
         <v>79</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E303" s="1">
         <v>36.0</v>
@@ -12964,7 +12966,7 @@
         <v>160.49</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I303" s="2"/>
       <c r="J303" s="2"/>
@@ -12993,7 +12995,7 @@
         <v>79</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E304" s="1">
         <v>38.0</v>
@@ -13005,7 +13007,7 @@
         <v>130.99</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I304" s="2"/>
       <c r="J304" s="2"/>
@@ -13034,7 +13036,7 @@
         <v>79</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E305" s="1">
         <v>39.0</v>
@@ -13046,7 +13048,7 @@
         <v>104.53</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I305" s="2"/>
       <c r="J305" s="2"/>
@@ -13075,7 +13077,7 @@
         <v>79</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E306" s="1">
         <v>40.0</v>
@@ -13087,7 +13089,7 @@
         <v>123.06</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I306" s="2"/>
       <c r="J306" s="2"/>
@@ -13116,7 +13118,7 @@
         <v>79</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E307" s="1">
         <v>35.0</v>
@@ -13128,7 +13130,7 @@
         <v>154.6</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I307" s="2"/>
       <c r="J307" s="2"/>
@@ -13157,7 +13159,7 @@
         <v>79</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E308" s="1">
         <v>55.0</v>
@@ -13169,7 +13171,7 @@
         <v>133.25</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I308" s="2"/>
       <c r="J308" s="2"/>
@@ -13198,7 +13200,7 @@
         <v>79</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E309" s="1">
         <v>31.0</v>
@@ -13210,7 +13212,7 @@
         <v>185.56</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I309" s="2"/>
       <c r="J309" s="2"/>
@@ -13239,7 +13241,7 @@
         <v>79</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E310" s="1">
         <v>18.0</v>
@@ -13251,7 +13253,7 @@
         <v>205.72</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I310" s="2"/>
       <c r="J310" s="2"/>
@@ -13280,7 +13282,7 @@
         <v>79</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E311" s="1">
         <v>28.0</v>
@@ -13292,7 +13294,7 @@
         <v>209.7</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I311" s="2"/>
       <c r="J311" s="2"/>
@@ -13321,7 +13323,7 @@
         <v>79</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E312" s="1">
         <v>20.0</v>
@@ -13333,7 +13335,7 @@
         <v>273.13</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I312" s="2"/>
       <c r="J312" s="2"/>
@@ -13362,7 +13364,7 @@
         <v>79</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E313" s="1">
         <v>33.0</v>
@@ -13374,7 +13376,7 @@
         <v>212.5</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I313" s="2"/>
       <c r="J313" s="2"/>
@@ -13403,7 +13405,7 @@
         <v>79</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E314" s="1">
         <v>27.0</v>
@@ -13415,7 +13417,7 @@
         <v>158.67</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I314" s="2"/>
       <c r="J314" s="2"/>
@@ -13444,7 +13446,7 @@
         <v>79</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E315" s="1">
         <v>26.0</v>
@@ -13456,7 +13458,7 @@
         <v>182.94</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I315" s="2"/>
       <c r="J315" s="2"/>
@@ -13485,7 +13487,7 @@
         <v>79</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E316" s="1">
         <v>25.0</v>
@@ -13497,7 +13499,7 @@
         <v>219.82</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I316" s="2"/>
       <c r="J316" s="2"/>
@@ -13538,7 +13540,7 @@
         <v>0.0</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I317" s="2"/>
       <c r="J317" s="2"/>
@@ -13569,7 +13571,7 @@
         <v>79</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E318" s="1">
         <v>34.0</v>
@@ -13581,7 +13583,7 @@
         <v>175.41</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I318" s="2"/>
       <c r="J318" s="2"/>
@@ -13610,7 +13612,7 @@
         <v>79</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E319" s="1">
         <v>37.0</v>
@@ -13622,7 +13624,7 @@
         <v>121.63</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I319" s="2"/>
       <c r="J319" s="2"/>
@@ -13663,7 +13665,7 @@
         <v>0.0</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I320" s="2"/>
       <c r="J320" s="2"/>
@@ -13694,7 +13696,7 @@
         <v>79</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E321" s="1">
         <v>36.0</v>
@@ -13735,7 +13737,7 @@
         <v>79</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E322" s="1">
         <v>18.0</v>
@@ -13776,7 +13778,7 @@
         <v>79</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E323" s="1">
         <v>33.0</v>
@@ -13817,7 +13819,7 @@
         <v>79</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E324" s="1">
         <v>38.0</v>
@@ -13858,7 +13860,7 @@
         <v>79</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E325" s="1">
         <v>35.0</v>
@@ -13899,7 +13901,7 @@
         <v>79</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E326" s="1">
         <v>4.0</v>
@@ -13940,7 +13942,7 @@
         <v>79</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E327" s="1">
         <v>40.0</v>
@@ -13981,7 +13983,7 @@
         <v>79</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E328" s="1">
         <v>31.0</v>
@@ -14022,7 +14024,7 @@
         <v>79</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E329" s="1">
         <v>28.0</v>
@@ -14063,7 +14065,7 @@
         <v>79</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E330" s="1">
         <v>27.0</v>
@@ -14104,7 +14106,7 @@
         <v>79</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E331" s="1">
         <v>25.0</v>
@@ -14145,7 +14147,7 @@
         <v>79</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E332" s="1">
         <v>53.0</v>
@@ -14186,7 +14188,7 @@
         <v>79</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E333" s="1">
         <v>55.0</v>
@@ -14227,7 +14229,7 @@
         <v>79</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E334" s="1">
         <v>39.0</v>
@@ -14268,7 +14270,7 @@
         <v>79</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E335" s="1">
         <v>26.0</v>
@@ -14352,7 +14354,7 @@
         <v>79</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E337" s="1">
         <v>10.0</v>
@@ -14364,7 +14366,7 @@
         <v>208.93</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I337" s="2"/>
       <c r="J337" s="2"/>
@@ -14393,7 +14395,7 @@
         <v>79</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E338" s="1">
         <v>6.0</v>
@@ -14405,7 +14407,7 @@
         <v>216.1</v>
       </c>
       <c r="H338" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I338" s="2"/>
       <c r="J338" s="2"/>
@@ -14434,7 +14436,7 @@
         <v>79</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E339" s="1">
         <v>17.0</v>
@@ -14446,7 +14448,7 @@
         <v>93.27</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I339" s="2"/>
       <c r="J339" s="2"/>
@@ -14475,7 +14477,7 @@
         <v>79</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E340" s="1">
         <v>86.0</v>
@@ -14487,7 +14489,7 @@
         <v>213.45</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I340" s="2"/>
       <c r="J340" s="2"/>
@@ -14516,7 +14518,7 @@
         <v>79</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E341" s="1">
         <v>9.0</v>
@@ -14528,7 +14530,7 @@
         <v>211.58</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I341" s="2"/>
       <c r="J341" s="2"/>
@@ -14557,7 +14559,7 @@
         <v>79</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E342" s="1">
         <v>13.0</v>
@@ -14569,7 +14571,7 @@
         <v>196.53</v>
       </c>
       <c r="H342" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I342" s="2"/>
       <c r="J342" s="2"/>
@@ -14598,7 +14600,7 @@
         <v>79</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E343" s="1">
         <v>11.0</v>
@@ -14610,7 +14612,7 @@
         <v>184.76</v>
       </c>
       <c r="H343" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I343" s="2"/>
       <c r="J343" s="2"/>
@@ -14639,7 +14641,7 @@
         <v>79</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E344" s="1">
         <v>20.0</v>
@@ -14651,7 +14653,7 @@
         <v>272.34</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I344" s="2"/>
       <c r="J344" s="2"/>
@@ -14680,7 +14682,7 @@
         <v>79</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E345" s="1">
         <v>77.0</v>
@@ -14692,7 +14694,7 @@
         <v>136.22</v>
       </c>
       <c r="H345" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I345" s="2"/>
       <c r="J345" s="2"/>
@@ -14721,7 +14723,7 @@
         <v>79</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E346" s="1">
         <v>5.0</v>
@@ -14733,7 +14735,7 @@
         <v>215.74</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I346" s="2"/>
       <c r="J346" s="2"/>
@@ -14762,7 +14764,7 @@
         <v>79</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E347" s="1">
         <v>16.0</v>
@@ -14774,7 +14776,7 @@
         <v>174.58</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I347" s="2"/>
       <c r="J347" s="2"/>
@@ -14803,7 +14805,7 @@
         <v>79</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E348" s="1">
         <v>3.0</v>
@@ -14815,7 +14817,7 @@
         <v>236.5</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I348" s="2"/>
       <c r="J348" s="2"/>
@@ -14844,7 +14846,7 @@
         <v>79</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E349" s="1">
         <v>2.0</v>
@@ -14856,7 +14858,7 @@
         <v>281.63</v>
       </c>
       <c r="H349" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I349" s="2"/>
       <c r="J349" s="2"/>
@@ -14885,7 +14887,7 @@
         <v>79</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E350" s="1">
         <v>14.0</v>
@@ -14897,7 +14899,7 @@
         <v>184.57</v>
       </c>
       <c r="H350" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I350" s="2"/>
       <c r="J350" s="2"/>
@@ -14926,7 +14928,7 @@
         <v>79</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E351" s="1">
         <v>8.0</v>
@@ -14938,7 +14940,7 @@
         <v>226.53</v>
       </c>
       <c r="H351" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I351" s="2"/>
       <c r="J351" s="2"/>
@@ -14981,7 +14983,7 @@
         <v>0.0</v>
       </c>
       <c r="H352" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I352" s="2"/>
       <c r="J352" s="2"/>
@@ -15012,7 +15014,7 @@
         <v>79</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E353" s="1">
         <v>44.0</v>
@@ -15024,7 +15026,7 @@
         <v>124.44</v>
       </c>
       <c r="H353" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I353" s="2"/>
       <c r="J353" s="2"/>
@@ -15053,7 +15055,7 @@
         <v>79</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E354" s="1">
         <v>59.0</v>
@@ -15065,7 +15067,7 @@
         <v>133.2</v>
       </c>
       <c r="H354" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I354" s="2"/>
       <c r="J354" s="2"/>
@@ -15094,7 +15096,7 @@
         <v>79</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E355" s="1">
         <v>49.0</v>
@@ -15106,7 +15108,7 @@
         <v>80.51</v>
       </c>
       <c r="H355" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I355" s="2"/>
       <c r="J355" s="2"/>
@@ -15135,7 +15137,7 @@
         <v>79</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E356" s="1">
         <v>15.0</v>
@@ -15147,7 +15149,7 @@
         <v>165.03</v>
       </c>
       <c r="H356" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I356" s="2"/>
       <c r="J356" s="2"/>
@@ -15176,7 +15178,7 @@
         <v>79</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E357" s="1">
         <v>46.0</v>
@@ -15188,7 +15190,7 @@
         <v>172.71</v>
       </c>
       <c r="H357" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I357" s="2"/>
       <c r="J357" s="2"/>
@@ -15217,7 +15219,7 @@
         <v>79</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E358" s="1">
         <v>1.0</v>
@@ -15229,7 +15231,7 @@
         <v>217.32</v>
       </c>
       <c r="H358" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I358" s="2"/>
       <c r="J358" s="2"/>
@@ -15258,7 +15260,7 @@
         <v>79</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E359" s="1">
         <v>56.0</v>
@@ -15270,7 +15272,7 @@
         <v>135.2</v>
       </c>
       <c r="H359" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I359" s="2"/>
       <c r="J359" s="2"/>
@@ -15299,7 +15301,7 @@
         <v>79</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>56</v>
@@ -15311,7 +15313,7 @@
         <v>142.48</v>
       </c>
       <c r="H360" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I360" s="2"/>
       <c r="J360" s="2"/>
@@ -15340,7 +15342,7 @@
         <v>79</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E361" s="1">
         <v>48.0</v>
@@ -15352,7 +15354,7 @@
         <v>160.69</v>
       </c>
       <c r="H361" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I361" s="2"/>
       <c r="J361" s="2"/>
@@ -15381,7 +15383,7 @@
         <v>79</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E362" s="1">
         <v>50.0</v>
@@ -15393,7 +15395,7 @@
         <v>211.65</v>
       </c>
       <c r="H362" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I362" s="2"/>
       <c r="J362" s="2"/>
@@ -15422,7 +15424,7 @@
         <v>79</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E363" s="1">
         <v>58.0</v>
@@ -15434,7 +15436,7 @@
         <v>148.93</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I363" s="2"/>
       <c r="J363" s="2"/>
@@ -15463,7 +15465,7 @@
         <v>79</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E364" s="1">
         <v>34.0</v>
@@ -15475,7 +15477,7 @@
         <v>175.22</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I364" s="2"/>
       <c r="J364" s="2"/>
@@ -15504,7 +15506,7 @@
         <v>79</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E365" s="1">
         <v>51.0</v>
@@ -15516,7 +15518,7 @@
         <v>147.05</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I365" s="2"/>
       <c r="J365" s="2"/>
@@ -15545,7 +15547,7 @@
         <v>79</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E366" s="1">
         <v>42.0</v>
@@ -15557,7 +15559,7 @@
         <v>96.33</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I366" s="2"/>
       <c r="J366" s="2"/>
@@ -15586,7 +15588,7 @@
         <v>79</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E367" s="1">
         <v>52.0</v>
@@ -15598,7 +15600,7 @@
         <v>232.25</v>
       </c>
       <c r="H367" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I367" s="2"/>
       <c r="J367" s="2"/>
@@ -15626,7 +15628,7 @@
         <v>0.08263888888888889</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>45</v>
@@ -15639,7 +15641,7 @@
         <v>0.0</v>
       </c>
       <c r="H368" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I368" s="2"/>
       <c r="J368" s="2"/>
@@ -15670,7 +15672,7 @@
         <v>79</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E369" s="1">
         <v>63.0</v>
@@ -15682,7 +15684,7 @@
         <v>171.47</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I369" s="2"/>
       <c r="J369" s="2"/>
@@ -15711,7 +15713,7 @@
         <v>79</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E370" s="1">
         <v>85.0</v>
@@ -15723,7 +15725,7 @@
         <v>201.92</v>
       </c>
       <c r="H370" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I370" s="2"/>
       <c r="J370" s="2"/>
@@ -15752,7 +15754,7 @@
         <v>79</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E371" s="1">
         <v>54.0</v>
@@ -15764,7 +15766,7 @@
         <v>67.94</v>
       </c>
       <c r="H371" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I371" s="2"/>
       <c r="J371" s="2"/>
@@ -15793,7 +15795,7 @@
         <v>79</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E372" s="1">
         <v>74.0</v>
@@ -15805,7 +15807,7 @@
         <v>292.82</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I372" s="2"/>
       <c r="J372" s="2"/>
@@ -15834,7 +15836,7 @@
         <v>79</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E373" s="1">
         <v>64.0</v>
@@ -15846,7 +15848,7 @@
         <v>168.59</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I373" s="2"/>
       <c r="J373" s="2"/>
@@ -15875,7 +15877,7 @@
         <v>79</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E374" s="1">
         <v>65.0</v>
@@ -15887,7 +15889,7 @@
         <v>199.99</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I374" s="2"/>
       <c r="J374" s="2"/>
@@ -15916,7 +15918,7 @@
         <v>79</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E375" s="1">
         <v>82.0</v>
@@ -15928,7 +15930,7 @@
         <v>259.21</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I375" s="2"/>
       <c r="J375" s="2"/>
@@ -15957,7 +15959,7 @@
         <v>79</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E376" s="1">
         <v>37.0</v>
@@ -15969,7 +15971,7 @@
         <v>120.65</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I376" s="2"/>
       <c r="J376" s="2"/>
@@ -15998,7 +16000,7 @@
         <v>79</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E377" s="1">
         <v>72.0</v>
@@ -16010,7 +16012,7 @@
         <v>221.94</v>
       </c>
       <c r="H377" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I377" s="2"/>
       <c r="J377" s="2"/>
@@ -16039,7 +16041,7 @@
         <v>79</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E378" s="1">
         <v>62.0</v>
@@ -16051,7 +16053,7 @@
         <v>115.76</v>
       </c>
       <c r="H378" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I378" s="2"/>
       <c r="J378" s="2"/>
@@ -16080,7 +16082,7 @@
         <v>79</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E379" s="1">
         <v>60.0</v>
@@ -16092,7 +16094,7 @@
         <v>163.73</v>
       </c>
       <c r="H379" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I379" s="2"/>
       <c r="J379" s="2"/>
@@ -16121,7 +16123,7 @@
         <v>79</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E380" s="1">
         <v>69.0</v>
@@ -16133,7 +16135,7 @@
         <v>223.65</v>
       </c>
       <c r="H380" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I380" s="2"/>
       <c r="J380" s="2"/>
@@ -16162,7 +16164,7 @@
         <v>79</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E381" s="1">
         <v>61.0</v>
@@ -16174,7 +16176,7 @@
         <v>140.83</v>
       </c>
       <c r="H381" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I381" s="2"/>
       <c r="J381" s="2"/>
@@ -16203,7 +16205,7 @@
         <v>79</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E382" s="1">
         <v>66.0</v>
@@ -16215,7 +16217,7 @@
         <v>196.42</v>
       </c>
       <c r="H382" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I382" s="2"/>
       <c r="J382" s="2"/>
@@ -16244,7 +16246,7 @@
         <v>79</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E383" s="1">
         <v>75.0</v>
@@ -16256,7 +16258,7 @@
         <v>290.21</v>
       </c>
       <c r="H383" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I383" s="2"/>
       <c r="J383" s="2"/>
@@ -16299,7 +16301,7 @@
         <v>0.0</v>
       </c>
       <c r="H384" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I384" s="2"/>
       <c r="J384" s="2"/>
@@ -16330,7 +16332,7 @@
         <v>79</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E385" s="1">
         <v>71.0</v>
@@ -16342,7 +16344,7 @@
         <v>182.17</v>
       </c>
       <c r="H385" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I385" s="2"/>
       <c r="J385" s="2"/>
@@ -16373,7 +16375,7 @@
         <v>79</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E386" s="1">
         <v>79.0</v>
@@ -16385,7 +16387,7 @@
         <v>132.74</v>
       </c>
       <c r="H386" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I386" s="2"/>
       <c r="J386" s="2"/>
@@ -16416,7 +16418,7 @@
         <v>48</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E387" s="1">
         <v>46.0</v>
@@ -16457,7 +16459,7 @@
         <v>49</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E388" s="1">
         <v>48.0</v>
@@ -16498,7 +16500,7 @@
         <v>46</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E389" s="1">
         <v>42.0</v>
@@ -16539,7 +16541,7 @@
         <v>50</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E390" s="1">
         <v>49.0</v>
@@ -16580,7 +16582,7 @@
         <v>43</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E391" s="1">
         <v>56.0</v>
@@ -16621,7 +16623,7 @@
         <v>38</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E392" s="1">
         <v>34.0</v>
@@ -16662,7 +16664,7 @@
         <v>57</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>56</v>
@@ -16700,10 +16702,10 @@
       </c>
       <c r="B394" s="2"/>
       <c r="C394" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E394" s="1">
         <v>1.0</v>
@@ -16744,7 +16746,7 @@
         <v>60</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E395" s="1">
         <v>58.0</v>
@@ -16789,7 +16791,7 @@
         <v>51</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E396" s="1">
         <v>50.0</v>
@@ -16830,7 +16832,7 @@
         <v>61</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E397" s="1">
         <v>59.0</v>
@@ -16871,7 +16873,7 @@
         <v>53</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E398" s="1">
         <v>52.0</v>
@@ -16912,7 +16914,7 @@
         <v>52</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E399" s="1">
         <v>51.0</v>
@@ -16953,7 +16955,7 @@
         <v>27</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E400" s="1">
         <v>15.0</v>
@@ -16994,7 +16996,7 @@
         <v>47</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E401" s="1">
         <v>44.0</v>
@@ -17034,7 +17036,7 @@
         <v>0.5111111111111111</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>45</v>
@@ -17080,7 +17082,7 @@
         <v>20</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E403" s="1">
         <v>6.0</v>
@@ -17121,7 +17123,7 @@
         <v>26</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E404" s="1">
         <v>14.0</v>
@@ -17162,7 +17164,7 @@
         <v>22</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E405" s="1">
         <v>9.0</v>
@@ -17203,7 +17205,7 @@
         <v>23</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E406" s="1">
         <v>10.0</v>
@@ -17244,7 +17246,7 @@
         <v>25</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E407" s="1">
         <v>13.0</v>
@@ -17285,7 +17287,7 @@
         <v>29</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E408" s="1">
         <v>17.0</v>
@@ -17326,7 +17328,7 @@
         <v>21</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E409" s="1">
         <v>8.0</v>
@@ -17367,7 +17369,7 @@
         <v>24</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E410" s="1">
         <v>11.0</v>
@@ -17408,7 +17410,7 @@
         <v>78</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E411" s="1">
         <v>86.0</v>
@@ -17449,7 +17451,7 @@
         <v>74</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E412" s="1">
         <v>77.0</v>
@@ -17490,7 +17492,7 @@
         <v>28</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E413" s="1">
         <v>16.0</v>
@@ -17531,7 +17533,7 @@
         <v>19</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E414" s="1">
         <v>5.0</v>
@@ -17572,7 +17574,7 @@
         <v>17</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E415" s="1">
         <v>3.0</v>
@@ -17613,7 +17615,7 @@
         <v>31</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E416" s="1">
         <v>20.0</v>
@@ -17654,7 +17656,7 @@
         <v>16</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E417" s="1">
         <v>2.0</v>
@@ -17694,7 +17696,7 @@
         <v>0.5486111111111112</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>45</v>
@@ -17738,7 +17740,7 @@
         <v>37</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E419" s="1">
         <v>33.0</v>
@@ -17779,7 +17781,7 @@
         <v>33</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E420" s="1">
         <v>26.0</v>
@@ -17820,7 +17822,7 @@
         <v>40</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E421" s="1">
         <v>36.0</v>
@@ -17861,7 +17863,7 @@
         <v>54</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E422" s="1">
         <v>53.0</v>
@@ -17902,7 +17904,7 @@
         <v>75</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E423" s="1">
         <v>79.0</v>
@@ -17943,7 +17945,7 @@
         <v>18</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E424" s="1">
         <v>4.0</v>
@@ -17984,7 +17986,7 @@
         <v>30</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E425" s="1">
         <v>18.0</v>
@@ -18025,7 +18027,7 @@
         <v>35</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E426" s="1">
         <v>28.0</v>
@@ -18066,7 +18068,7 @@
         <v>44</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E427" s="1">
         <v>40.0</v>
@@ -18107,7 +18109,7 @@
         <v>32</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E428" s="1">
         <v>25.0</v>
@@ -18148,7 +18150,7 @@
         <v>36</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E429" s="1">
         <v>31.0</v>
@@ -18189,7 +18191,7 @@
         <v>34</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E430" s="1">
         <v>27.0</v>
@@ -18230,7 +18232,7 @@
         <v>39</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E431" s="1">
         <v>35.0</v>
@@ -18271,7 +18273,7 @@
         <v>58</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E432" s="1">
         <v>55.0</v>
@@ -18312,7 +18314,7 @@
         <v>70</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E433" s="1">
         <v>71.0</v>
@@ -18350,7 +18352,7 @@
       </c>
       <c r="B434" s="2"/>
       <c r="C434" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>45</v>
@@ -18394,7 +18396,7 @@
         <v>62</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E435" s="1">
         <v>60.0</v>
@@ -18435,7 +18437,7 @@
         <v>55</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E436" s="1">
         <v>54.0</v>
@@ -18476,7 +18478,7 @@
         <v>65</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E437" s="1">
         <v>63.0</v>
@@ -18517,7 +18519,7 @@
         <v>63</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E438" s="1">
         <v>61.0</v>
@@ -18558,7 +18560,7 @@
         <v>42</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E439" s="1">
         <v>38.0</v>
@@ -18599,7 +18601,7 @@
         <v>73</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E440" s="1">
         <v>75.0</v>
@@ -18640,7 +18642,7 @@
         <v>43</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E441" s="1">
         <v>39.0</v>
@@ -18681,7 +18683,7 @@
         <v>64</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E442" s="1">
         <v>62.0</v>
@@ -18722,7 +18724,7 @@
         <v>66</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E443" s="1">
         <v>64.0</v>
@@ -18763,7 +18765,7 @@
         <v>72</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E444" s="1">
         <v>74.0</v>
@@ -18804,7 +18806,7 @@
         <v>76</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E445" s="1">
         <v>82.0</v>
@@ -18845,7 +18847,7 @@
         <v>67</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E446" s="1">
         <v>65.0</v>
@@ -18886,7 +18888,7 @@
         <v>68</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E447" s="1">
         <v>66.0</v>
@@ -18927,7 +18929,7 @@
         <v>41</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E448" s="1">
         <v>37.0</v>
@@ -18968,7 +18970,7 @@
         <v>77</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E449" s="1">
         <v>85.0</v>
@@ -19006,7 +19008,7 @@
       </c>
       <c r="B450" s="2"/>
       <c r="C450" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>45</v>
@@ -19050,7 +19052,7 @@
         <v>71</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E451" s="1">
         <v>72.0</v>
@@ -19091,7 +19093,7 @@
         <v>69</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E452" s="1">
         <v>69.0</v>
@@ -19134,7 +19136,7 @@
         <v>88</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E453" s="1">
         <v>64.0</v>
@@ -19173,7 +19175,7 @@
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
       <c r="D454" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E454" s="1">
         <v>60.0</v>
@@ -19210,7 +19212,7 @@
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
       <c r="D455" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E455" s="1">
         <v>37.0</v>
@@ -19247,7 +19249,7 @@
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
       <c r="D456" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E456" s="1">
         <v>69.0</v>
@@ -19284,7 +19286,7 @@
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
       <c r="D457" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E457" s="1">
         <v>72.0</v>
@@ -19321,7 +19323,7 @@
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
       <c r="D458" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E458" s="1">
         <v>63.0</v>
@@ -19358,7 +19360,7 @@
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
       <c r="D459" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E459" s="1">
         <v>85.0</v>
@@ -19395,7 +19397,7 @@
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
       <c r="D460" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E460" s="1">
         <v>39.0</v>
@@ -19432,7 +19434,7 @@
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
       <c r="D461" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E461" s="1">
         <v>54.0</v>
@@ -19469,7 +19471,7 @@
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
       <c r="D462" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E462" s="1">
         <v>65.0</v>
@@ -19506,7 +19508,7 @@
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
       <c r="D463" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E463" s="1">
         <v>75.0</v>
@@ -19543,7 +19545,7 @@
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
       <c r="D464" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E464" s="1">
         <v>61.0</v>
@@ -19580,7 +19582,7 @@
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
       <c r="D465" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E465" s="1">
         <v>38.0</v>
@@ -19617,7 +19619,7 @@
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
       <c r="D466" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E466" s="1">
         <v>62.0</v>
@@ -19654,7 +19656,7 @@
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
       <c r="D467" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E467" s="1">
         <v>82.0</v>
@@ -19732,7 +19734,7 @@
       </c>
       <c r="C469" s="2"/>
       <c r="D469" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E469" s="1">
         <v>6.0</v>
@@ -19769,7 +19771,7 @@
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
       <c r="D470" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E470" s="1">
         <v>16.0</v>
@@ -19806,7 +19808,7 @@
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
       <c r="D471" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E471" s="1">
         <v>14.0</v>
@@ -19843,7 +19845,7 @@
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
       <c r="D472" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E472" s="1">
         <v>20.0</v>
@@ -19880,7 +19882,7 @@
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
       <c r="D473" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E473" s="1">
         <v>77.0</v>
@@ -19917,7 +19919,7 @@
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
       <c r="D474" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E474" s="1">
         <v>9.0</v>
@@ -19954,7 +19956,7 @@
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
       <c r="D475" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E475" s="1">
         <v>74.0</v>
@@ -19991,7 +19993,7 @@
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
       <c r="D476" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E476" s="1">
         <v>17.0</v>
@@ -20028,7 +20030,7 @@
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
       <c r="D477" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E477" s="1">
         <v>11.0</v>
@@ -20065,7 +20067,7 @@
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
       <c r="D478" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E478" s="1">
         <v>66.0</v>
@@ -20102,7 +20104,7 @@
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
       <c r="D479" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E479" s="1">
         <v>13.0</v>
@@ -20139,7 +20141,7 @@
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
       <c r="D480" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E480" s="1">
         <v>5.0</v>
@@ -20176,7 +20178,7 @@
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
       <c r="D481" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E481" s="1">
         <v>10.0</v>
@@ -20213,7 +20215,7 @@
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
       <c r="D482" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E482" s="1">
         <v>8.0</v>
@@ -20250,7 +20252,7 @@
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
       <c r="D483" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E483" s="1">
         <v>3.0</v>
@@ -20328,7 +20330,7 @@
       </c>
       <c r="C485" s="2"/>
       <c r="D485" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E485" s="1">
         <v>56.0</v>
@@ -20365,7 +20367,7 @@
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
       <c r="D486" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E486" s="1">
         <v>46.0</v>
@@ -20402,7 +20404,7 @@
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
       <c r="D487" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E487" s="1">
         <v>15.0</v>
@@ -20439,7 +20441,7 @@
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
       <c r="D488" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E488" s="1">
         <v>34.0</v>
@@ -20476,7 +20478,7 @@
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
       <c r="D489" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E489" s="1">
         <v>51.0</v>
@@ -20513,7 +20515,7 @@
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
       <c r="D490" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E490" s="1">
         <v>1.0</v>
@@ -20550,7 +20552,7 @@
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
       <c r="D491" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E491" s="1">
         <v>58.0</v>
@@ -20587,7 +20589,7 @@
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
       <c r="D492" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E492" s="1">
         <v>48.0</v>
@@ -20624,7 +20626,7 @@
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
       <c r="D493" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E493" s="1" t="s">
         <v>56</v>
@@ -20661,7 +20663,7 @@
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
       <c r="D494" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E494" s="1">
         <v>52.0</v>
@@ -20698,7 +20700,7 @@
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
       <c r="D495" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E495" s="1">
         <v>42.0</v>
@@ -20735,7 +20737,7 @@
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
       <c r="D496" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E496" s="1">
         <v>44.0</v>
@@ -20772,7 +20774,7 @@
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
       <c r="D497" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E497" s="1">
         <v>59.0</v>
@@ -20809,7 +20811,7 @@
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
       <c r="D498" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E498" s="1">
         <v>49.0</v>
@@ -20846,7 +20848,7 @@
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
       <c r="D499" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E499" s="1">
         <v>50.0</v>
@@ -20924,7 +20926,7 @@
       </c>
       <c r="C501" s="2"/>
       <c r="D501" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E501" s="1">
         <v>31.0</v>
@@ -20961,7 +20963,7 @@
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
       <c r="D502" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E502" s="1">
         <v>55.0</v>
@@ -20998,7 +21000,7 @@
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
       <c r="D503" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E503" s="1">
         <v>33.0</v>
@@ -21035,7 +21037,7 @@
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
       <c r="D504" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E504" s="1">
         <v>40.0</v>
@@ -21072,7 +21074,7 @@
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
       <c r="D505" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E505" s="1">
         <v>25.0</v>
@@ -21109,7 +21111,7 @@
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
       <c r="D506" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E506" s="1">
         <v>2.0</v>
@@ -21146,7 +21148,7 @@
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
       <c r="D507" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E507" s="1">
         <v>86.0</v>
@@ -21183,7 +21185,7 @@
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
       <c r="D508" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E508" s="1">
         <v>27.0</v>
@@ -21220,7 +21222,7 @@
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
       <c r="D509" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E509" s="1">
         <v>79.0</v>
@@ -21257,7 +21259,7 @@
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
       <c r="D510" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E510" s="1">
         <v>4.0</v>
@@ -21294,7 +21296,7 @@
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
       <c r="D511" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E511" s="1">
         <v>53.0</v>
@@ -21331,7 +21333,7 @@
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
       <c r="D512" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E512" s="1">
         <v>35.0</v>
@@ -21368,7 +21370,7 @@
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
       <c r="D513" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E513" s="1">
         <v>36.0</v>
@@ -21405,7 +21407,7 @@
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E514" s="1">
         <v>26.0</v>
@@ -21442,7 +21444,7 @@
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
       <c r="D515" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E515" s="1">
         <v>71.0</v>
@@ -21520,7 +21522,7 @@
       </c>
       <c r="C517" s="2"/>
       <c r="D517" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E517" s="1">
         <v>28.0</v>
@@ -21557,7 +21559,7 @@
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
       <c r="D518" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E518" s="1">
         <v>18.0</v>
@@ -24094,13 +24096,23 @@
       <c r="Y586" s="2"/>
     </row>
     <row r="587" ht="14.25" customHeight="1">
-      <c r="A587" s="2"/>
-      <c r="B587" s="2"/>
+      <c r="A587" s="7">
+        <v>43497.0</v>
+      </c>
+      <c r="B587" s="6">
+        <v>0.3958333333333333</v>
+      </c>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
-      <c r="E587" s="2"/>
-      <c r="F587" s="2"/>
-      <c r="G587" s="2"/>
+      <c r="E587" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="F587" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G587" s="1">
+        <v>135.81</v>
+      </c>
       <c r="H587" s="2"/>
       <c r="I587" s="2"/>
       <c r="J587" s="2"/>
@@ -24121,13 +24133,21 @@
       <c r="Y587" s="2"/>
     </row>
     <row r="588" ht="14.25" customHeight="1">
-      <c r="A588" s="2"/>
+      <c r="A588" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
-      <c r="E588" s="2"/>
-      <c r="F588" s="2"/>
-      <c r="G588" s="2"/>
+      <c r="E588" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F588" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G588" s="1">
+        <v>210.1</v>
+      </c>
       <c r="H588" s="2"/>
       <c r="I588" s="2"/>
       <c r="J588" s="2"/>
@@ -24148,13 +24168,21 @@
       <c r="Y588" s="2"/>
     </row>
     <row r="589" ht="14.25" customHeight="1">
-      <c r="A589" s="2"/>
+      <c r="A589" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
-      <c r="E589" s="2"/>
-      <c r="F589" s="2"/>
-      <c r="G589" s="2"/>
+      <c r="E589" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="F589" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G589" s="8">
+        <v>105.53</v>
+      </c>
       <c r="H589" s="2"/>
       <c r="I589" s="2"/>
       <c r="J589" s="2"/>
@@ -24175,13 +24203,21 @@
       <c r="Y589" s="2"/>
     </row>
     <row r="590" ht="14.25" customHeight="1">
-      <c r="A590" s="2"/>
+      <c r="A590" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
-      <c r="E590" s="2"/>
-      <c r="F590" s="2"/>
-      <c r="G590" s="2"/>
+      <c r="E590" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F590" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G590" s="1">
+        <v>159.63</v>
+      </c>
       <c r="H590" s="2"/>
       <c r="I590" s="2"/>
       <c r="J590" s="2"/>
@@ -24202,13 +24238,21 @@
       <c r="Y590" s="2"/>
     </row>
     <row r="591" ht="14.25" customHeight="1">
-      <c r="A591" s="2"/>
+      <c r="A591" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
-      <c r="E591" s="2"/>
-      <c r="F591" s="2"/>
-      <c r="G591" s="2"/>
+      <c r="E591" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="F591" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G591" s="1">
+        <v>174.99</v>
+      </c>
       <c r="H591" s="2"/>
       <c r="I591" s="2"/>
       <c r="J591" s="2"/>
@@ -24229,13 +24273,21 @@
       <c r="Y591" s="2"/>
     </row>
     <row r="592" ht="14.25" customHeight="1">
-      <c r="A592" s="2"/>
+      <c r="A592" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
-      <c r="E592" s="2"/>
-      <c r="F592" s="2"/>
-      <c r="G592" s="2"/>
+      <c r="E592" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="F592" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G592" s="1">
+        <v>211.95</v>
+      </c>
       <c r="H592" s="2"/>
       <c r="I592" s="2"/>
       <c r="J592" s="2"/>
@@ -24256,13 +24308,21 @@
       <c r="Y592" s="2"/>
     </row>
     <row r="593" ht="14.25" customHeight="1">
-      <c r="A593" s="2"/>
+      <c r="A593" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
-      <c r="E593" s="2"/>
-      <c r="F593" s="2"/>
-      <c r="G593" s="2"/>
+      <c r="E593" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F593" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G593" s="1">
+        <v>192.52</v>
+      </c>
       <c r="H593" s="2"/>
       <c r="I593" s="2"/>
       <c r="J593" s="2"/>
@@ -24283,13 +24343,21 @@
       <c r="Y593" s="2"/>
     </row>
     <row r="594" ht="14.25" customHeight="1">
-      <c r="A594" s="2"/>
+      <c r="A594" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
-      <c r="E594" s="2"/>
-      <c r="F594" s="2"/>
-      <c r="G594" s="2"/>
+      <c r="E594" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="F594" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G594" s="1">
+        <v>105.7</v>
+      </c>
       <c r="H594" s="2"/>
       <c r="I594" s="2"/>
       <c r="J594" s="2"/>
@@ -24310,13 +24378,21 @@
       <c r="Y594" s="2"/>
     </row>
     <row r="595" ht="14.25" customHeight="1">
-      <c r="A595" s="2"/>
+      <c r="A595" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
-      <c r="E595" s="2"/>
-      <c r="F595" s="2"/>
-      <c r="G595" s="2"/>
+      <c r="E595" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F595" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G595" s="1">
+        <v>119.95</v>
+      </c>
       <c r="H595" s="2"/>
       <c r="I595" s="2"/>
       <c r="J595" s="2"/>
@@ -24337,13 +24413,21 @@
       <c r="Y595" s="2"/>
     </row>
     <row r="596" ht="14.25" customHeight="1">
-      <c r="A596" s="2"/>
+      <c r="A596" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
-      <c r="E596" s="2"/>
-      <c r="F596" s="2"/>
-      <c r="G596" s="2"/>
+      <c r="E596" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="F596" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G596" s="1">
+        <v>150.84</v>
+      </c>
       <c r="H596" s="2"/>
       <c r="I596" s="2"/>
       <c r="J596" s="2"/>
@@ -24364,13 +24448,21 @@
       <c r="Y596" s="2"/>
     </row>
     <row r="597" ht="14.25" customHeight="1">
-      <c r="A597" s="2"/>
+      <c r="A597" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
-      <c r="E597" s="2"/>
-      <c r="F597" s="2"/>
-      <c r="G597" s="2"/>
+      <c r="E597" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="F597" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G597" s="1">
+        <v>100.74</v>
+      </c>
       <c r="H597" s="2"/>
       <c r="I597" s="2"/>
       <c r="J597" s="2"/>
@@ -24391,13 +24483,21 @@
       <c r="Y597" s="2"/>
     </row>
     <row r="598" ht="14.25" customHeight="1">
-      <c r="A598" s="2"/>
+      <c r="A598" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
-      <c r="E598" s="2"/>
-      <c r="F598" s="2"/>
-      <c r="G598" s="2"/>
+      <c r="E598" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="F598" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G598" s="1">
+        <v>180.73</v>
+      </c>
       <c r="H598" s="2"/>
       <c r="I598" s="2"/>
       <c r="J598" s="2"/>
@@ -24418,13 +24518,21 @@
       <c r="Y598" s="2"/>
     </row>
     <row r="599" ht="14.25" customHeight="1">
-      <c r="A599" s="2"/>
+      <c r="A599" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
-      <c r="E599" s="2"/>
-      <c r="F599" s="2"/>
-      <c r="G599" s="2"/>
+      <c r="E599" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="F599" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="G599" s="1">
+        <v>105.87</v>
+      </c>
       <c r="H599" s="2"/>
       <c r="I599" s="2"/>
       <c r="J599" s="2"/>
@@ -24445,13 +24553,21 @@
       <c r="Y599" s="2"/>
     </row>
     <row r="600" ht="14.25" customHeight="1">
-      <c r="A600" s="2"/>
+      <c r="A600" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
-      <c r="E600" s="2"/>
-      <c r="F600" s="2"/>
-      <c r="G600" s="2"/>
+      <c r="E600" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="F600" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G600" s="1">
+        <v>117.79</v>
+      </c>
       <c r="H600" s="2"/>
       <c r="I600" s="2"/>
       <c r="J600" s="2"/>
@@ -24472,13 +24588,21 @@
       <c r="Y600" s="2"/>
     </row>
     <row r="601" ht="14.25" customHeight="1">
-      <c r="A601" s="2"/>
+      <c r="A601" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
-      <c r="E601" s="2"/>
-      <c r="F601" s="2"/>
-      <c r="G601" s="2"/>
+      <c r="E601" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="F601" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="G601" s="1">
+        <v>83.03</v>
+      </c>
       <c r="H601" s="2"/>
       <c r="I601" s="2"/>
       <c r="J601" s="2"/>
@@ -24499,13 +24623,25 @@
       <c r="Y601" s="2"/>
     </row>
     <row r="602" ht="14.25" customHeight="1">
-      <c r="A602" s="2"/>
-      <c r="B602" s="2"/>
+      <c r="A602" s="7">
+        <v>43497.0</v>
+      </c>
+      <c r="B602" s="6">
+        <v>0.41597222222222224</v>
+      </c>
       <c r="C602" s="2"/>
-      <c r="D602" s="2"/>
-      <c r="E602" s="2"/>
-      <c r="F602" s="2"/>
-      <c r="G602" s="2"/>
+      <c r="D602" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E602" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F602" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G602" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H602" s="2"/>
       <c r="I602" s="2"/>
       <c r="J602" s="2"/>
@@ -24526,13 +24662,23 @@
       <c r="Y602" s="2"/>
     </row>
     <row r="603" ht="14.25" customHeight="1">
-      <c r="A603" s="2"/>
-      <c r="B603" s="2"/>
+      <c r="A603" s="7">
+        <v>43497.0</v>
+      </c>
+      <c r="B603" s="6">
+        <v>0.4201388888888889</v>
+      </c>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
-      <c r="E603" s="2"/>
-      <c r="F603" s="2"/>
-      <c r="G603" s="2"/>
+      <c r="E603" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="F603" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G603" s="1">
+        <v>83.54</v>
+      </c>
       <c r="H603" s="2"/>
       <c r="I603" s="2"/>
       <c r="J603" s="2"/>
@@ -24553,13 +24699,21 @@
       <c r="Y603" s="2"/>
     </row>
     <row r="604" ht="14.25" customHeight="1">
-      <c r="A604" s="2"/>
+      <c r="A604" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
-      <c r="E604" s="2"/>
-      <c r="F604" s="2"/>
-      <c r="G604" s="2"/>
+      <c r="E604" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="F604" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G604" s="1">
+        <v>158.32</v>
+      </c>
       <c r="H604" s="2"/>
       <c r="I604" s="2"/>
       <c r="J604" s="2"/>
@@ -24580,13 +24734,21 @@
       <c r="Y604" s="2"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
-      <c r="A605" s="2"/>
+      <c r="A605" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
-      <c r="E605" s="2"/>
-      <c r="F605" s="2"/>
-      <c r="G605" s="2"/>
+      <c r="E605" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="F605" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G605" s="1">
+        <v>98.41</v>
+      </c>
       <c r="H605" s="2"/>
       <c r="I605" s="2"/>
       <c r="J605" s="2"/>
@@ -24607,13 +24769,21 @@
       <c r="Y605" s="2"/>
     </row>
     <row r="606" ht="14.25" customHeight="1">
-      <c r="A606" s="2"/>
+      <c r="A606" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
-      <c r="E606" s="2"/>
-      <c r="F606" s="2"/>
-      <c r="G606" s="2"/>
+      <c r="E606" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="F606" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G606" s="1">
+        <v>203.42</v>
+      </c>
       <c r="H606" s="2"/>
       <c r="I606" s="2"/>
       <c r="J606" s="2"/>
@@ -24634,13 +24804,21 @@
       <c r="Y606" s="2"/>
     </row>
     <row r="607" ht="14.25" customHeight="1">
-      <c r="A607" s="2"/>
+      <c r="A607" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
-      <c r="E607" s="2"/>
-      <c r="F607" s="2"/>
-      <c r="G607" s="2"/>
+      <c r="E607" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="F607" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G607" s="1">
+        <v>182.07</v>
+      </c>
       <c r="H607" s="2"/>
       <c r="I607" s="2"/>
       <c r="J607" s="2"/>
@@ -24661,13 +24839,21 @@
       <c r="Y607" s="2"/>
     </row>
     <row r="608" ht="14.25" customHeight="1">
-      <c r="A608" s="2"/>
+      <c r="A608" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
-      <c r="E608" s="2"/>
-      <c r="F608" s="2"/>
-      <c r="G608" s="2"/>
+      <c r="E608" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F608" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G608" s="1">
+        <v>208.4</v>
+      </c>
       <c r="H608" s="2"/>
       <c r="I608" s="2"/>
       <c r="J608" s="2"/>
@@ -24688,13 +24874,21 @@
       <c r="Y608" s="2"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
-      <c r="A609" s="2"/>
+      <c r="A609" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
-      <c r="E609" s="2"/>
-      <c r="F609" s="2"/>
-      <c r="G609" s="2"/>
+      <c r="E609" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="F609" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G609" s="1">
+        <v>153.8</v>
+      </c>
       <c r="H609" s="2"/>
       <c r="I609" s="2"/>
       <c r="J609" s="2"/>
@@ -24715,13 +24909,21 @@
       <c r="Y609" s="2"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
-      <c r="A610" s="2"/>
+      <c r="A610" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
-      <c r="E610" s="2"/>
-      <c r="F610" s="2"/>
-      <c r="G610" s="2"/>
+      <c r="E610" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="F610" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G610" s="1">
+        <v>214.5</v>
+      </c>
       <c r="H610" s="2"/>
       <c r="I610" s="2"/>
       <c r="J610" s="2"/>
@@ -24742,13 +24944,21 @@
       <c r="Y610" s="2"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
-      <c r="A611" s="2"/>
+      <c r="A611" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
-      <c r="E611" s="2"/>
-      <c r="F611" s="2"/>
-      <c r="G611" s="2"/>
+      <c r="E611" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="F611" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G611" s="1">
+        <v>209.06</v>
+      </c>
       <c r="H611" s="2"/>
       <c r="I611" s="2"/>
       <c r="J611" s="2"/>
@@ -24769,13 +24979,21 @@
       <c r="Y611" s="2"/>
     </row>
     <row r="612" ht="14.25" customHeight="1">
-      <c r="A612" s="2"/>
+      <c r="A612" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
-      <c r="E612" s="2"/>
-      <c r="F612" s="2"/>
-      <c r="G612" s="2"/>
+      <c r="E612" s="1">
+        <v>79.0</v>
+      </c>
+      <c r="F612" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G612" s="1">
+        <v>98.95</v>
+      </c>
       <c r="H612" s="2"/>
       <c r="I612" s="2"/>
       <c r="J612" s="2"/>
@@ -24796,13 +25014,21 @@
       <c r="Y612" s="2"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
-      <c r="A613" s="2"/>
+      <c r="A613" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
-      <c r="E613" s="2"/>
-      <c r="F613" s="2"/>
-      <c r="G613" s="2"/>
+      <c r="E613" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="F613" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G613" s="1">
+        <v>154.14</v>
+      </c>
       <c r="H613" s="2"/>
       <c r="I613" s="2"/>
       <c r="J613" s="2"/>
@@ -24823,13 +25049,21 @@
       <c r="Y613" s="2"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
-      <c r="A614" s="2"/>
+      <c r="A614" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
-      <c r="E614" s="2"/>
-      <c r="F614" s="2"/>
-      <c r="G614" s="2"/>
+      <c r="E614" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="F614" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G614" s="1">
+        <v>223.54</v>
+      </c>
       <c r="H614" s="2"/>
       <c r="I614" s="2"/>
       <c r="J614" s="2"/>
@@ -24850,13 +25084,21 @@
       <c r="Y614" s="2"/>
     </row>
     <row r="615" ht="14.25" customHeight="1">
-      <c r="A615" s="2"/>
+      <c r="A615" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
-      <c r="E615" s="2"/>
-      <c r="F615" s="2"/>
-      <c r="G615" s="2"/>
+      <c r="E615" s="1">
+        <v>86.0</v>
+      </c>
+      <c r="F615" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="G615" s="1">
+        <v>213.37</v>
+      </c>
       <c r="H615" s="2"/>
       <c r="I615" s="2"/>
       <c r="J615" s="2"/>
@@ -24877,13 +25119,21 @@
       <c r="Y615" s="2"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
-      <c r="A616" s="2"/>
+      <c r="A616" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
-      <c r="E616" s="2"/>
-      <c r="F616" s="2"/>
-      <c r="G616" s="2"/>
+      <c r="E616" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="F616" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G616" s="1">
+        <v>80.25</v>
+      </c>
       <c r="H616" s="2"/>
       <c r="I616" s="2"/>
       <c r="J616" s="2"/>
@@ -24904,13 +25154,21 @@
       <c r="Y616" s="2"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
-      <c r="A617" s="2"/>
+      <c r="A617" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
-      <c r="E617" s="2"/>
-      <c r="F617" s="2"/>
-      <c r="G617" s="2"/>
+      <c r="E617" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="F617" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="G617" s="1">
+        <v>120.62</v>
+      </c>
       <c r="H617" s="2"/>
       <c r="I617" s="2"/>
       <c r="J617" s="2"/>
@@ -24931,13 +25189,25 @@
       <c r="Y617" s="2"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
-      <c r="A618" s="2"/>
-      <c r="B618" s="2"/>
+      <c r="A618" s="7">
+        <v>43497.0</v>
+      </c>
+      <c r="B618" s="6">
+        <v>0.4652777777777778</v>
+      </c>
       <c r="C618" s="2"/>
-      <c r="D618" s="2"/>
-      <c r="E618" s="2"/>
-      <c r="F618" s="2"/>
-      <c r="G618" s="2"/>
+      <c r="D618" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E618" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F618" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G618" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H618" s="2"/>
       <c r="I618" s="2"/>
       <c r="J618" s="2"/>
@@ -24958,13 +25228,23 @@
       <c r="Y618" s="2"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
-      <c r="A619" s="2"/>
-      <c r="B619" s="2"/>
+      <c r="A619" s="7">
+        <v>43497.0</v>
+      </c>
+      <c r="B619" s="6">
+        <v>0.46944444444444444</v>
+      </c>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
-      <c r="E619" s="2"/>
-      <c r="F619" s="2"/>
-      <c r="G619" s="2"/>
+      <c r="E619" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="F619" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G619" s="1">
+        <v>289.27</v>
+      </c>
       <c r="H619" s="2"/>
       <c r="I619" s="2"/>
       <c r="J619" s="2"/>
@@ -24985,13 +25265,21 @@
       <c r="Y619" s="2"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
-      <c r="A620" s="2"/>
+      <c r="A620" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
-      <c r="E620" s="2"/>
-      <c r="F620" s="2"/>
-      <c r="G620" s="2"/>
+      <c r="E620" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="F620" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G620" s="1">
+        <v>168.94</v>
+      </c>
       <c r="H620" s="2"/>
       <c r="I620" s="2"/>
       <c r="J620" s="2"/>
@@ -25012,13 +25300,21 @@
       <c r="Y620" s="2"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
-      <c r="A621" s="2"/>
+      <c r="A621" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
-      <c r="E621" s="2"/>
-      <c r="F621" s="2"/>
-      <c r="G621" s="2"/>
+      <c r="E621" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="F621" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G621" s="1">
+        <v>133.82</v>
+      </c>
       <c r="H621" s="2"/>
       <c r="I621" s="2"/>
       <c r="J621" s="2"/>
@@ -25039,13 +25335,21 @@
       <c r="Y621" s="2"/>
     </row>
     <row r="622" ht="14.25" customHeight="1">
-      <c r="A622" s="2"/>
+      <c r="A622" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
-      <c r="E622" s="2"/>
-      <c r="F622" s="2"/>
-      <c r="G622" s="2"/>
+      <c r="E622" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="F622" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G622" s="1">
+        <v>102.18</v>
+      </c>
       <c r="H622" s="2"/>
       <c r="I622" s="2"/>
       <c r="J622" s="2"/>
@@ -25066,13 +25370,21 @@
       <c r="Y622" s="2"/>
     </row>
     <row r="623" ht="14.25" customHeight="1">
-      <c r="A623" s="2"/>
+      <c r="A623" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
-      <c r="E623" s="2"/>
-      <c r="F623" s="2"/>
-      <c r="G623" s="2"/>
+      <c r="E623" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="F623" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G623" s="1">
+        <v>201.74</v>
+      </c>
       <c r="H623" s="2"/>
       <c r="I623" s="2"/>
       <c r="J623" s="2"/>
@@ -25093,13 +25405,21 @@
       <c r="Y623" s="2"/>
     </row>
     <row r="624" ht="14.25" customHeight="1">
-      <c r="A624" s="2"/>
+      <c r="A624" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
-      <c r="E624" s="2"/>
-      <c r="F624" s="2"/>
-      <c r="G624" s="2"/>
+      <c r="E624" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="F624" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G624" s="1">
+        <v>222.22</v>
+      </c>
       <c r="H624" s="2"/>
       <c r="I624" s="2"/>
       <c r="J624" s="2"/>
@@ -25120,13 +25440,21 @@
       <c r="Y624" s="2"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
-      <c r="A625" s="2"/>
+      <c r="A625" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
-      <c r="E625" s="2"/>
-      <c r="F625" s="2"/>
-      <c r="G625" s="2"/>
+      <c r="E625" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="F625" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G625" s="1">
+        <v>163.41</v>
+      </c>
       <c r="H625" s="2"/>
       <c r="I625" s="2"/>
       <c r="J625" s="2"/>
@@ -25147,13 +25475,21 @@
       <c r="Y625" s="2"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
-      <c r="A626" s="2"/>
+      <c r="A626" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
-      <c r="E626" s="2"/>
-      <c r="F626" s="2"/>
-      <c r="G626" s="2"/>
+      <c r="E626" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="F626" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G626" s="1">
+        <v>122.54</v>
+      </c>
       <c r="H626" s="2"/>
       <c r="I626" s="2"/>
       <c r="J626" s="2"/>
@@ -25174,13 +25510,21 @@
       <c r="Y626" s="2"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
-      <c r="A627" s="2"/>
+      <c r="A627" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
-      <c r="E627" s="2"/>
-      <c r="F627" s="2"/>
-      <c r="G627" s="2"/>
+      <c r="E627" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="F627" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G627" s="1">
+        <v>186.58</v>
+      </c>
       <c r="H627" s="2"/>
       <c r="I627" s="2"/>
       <c r="J627" s="2"/>
@@ -25201,13 +25545,21 @@
       <c r="Y627" s="2"/>
     </row>
     <row r="628" ht="14.25" customHeight="1">
-      <c r="A628" s="2"/>
+      <c r="A628" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
-      <c r="E628" s="2"/>
-      <c r="F628" s="2"/>
-      <c r="G628" s="2"/>
+      <c r="E628" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="F628" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G628" s="1">
+        <v>58.99</v>
+      </c>
       <c r="H628" s="2"/>
       <c r="I628" s="2"/>
       <c r="J628" s="2"/>
@@ -25228,13 +25580,21 @@
       <c r="Y628" s="2"/>
     </row>
     <row r="629" ht="14.25" customHeight="1">
-      <c r="A629" s="2"/>
+      <c r="A629" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
-      <c r="E629" s="2"/>
-      <c r="F629" s="2"/>
-      <c r="G629" s="2"/>
+      <c r="E629" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F629" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G629" s="1">
+        <v>281.32</v>
+      </c>
       <c r="H629" s="2"/>
       <c r="I629" s="2"/>
       <c r="J629" s="2"/>
@@ -25255,13 +25615,21 @@
       <c r="Y629" s="2"/>
     </row>
     <row r="630" ht="14.25" customHeight="1">
-      <c r="A630" s="2"/>
+      <c r="A630" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
-      <c r="E630" s="2"/>
-      <c r="F630" s="2"/>
-      <c r="G630" s="2"/>
+      <c r="E630" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="F630" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G630" s="1">
+        <v>109.25</v>
+      </c>
       <c r="H630" s="2"/>
       <c r="I630" s="2"/>
       <c r="J630" s="2"/>
@@ -25282,13 +25650,21 @@
       <c r="Y630" s="2"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
-      <c r="A631" s="2"/>
+      <c r="A631" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
-      <c r="E631" s="2"/>
-      <c r="F631" s="2"/>
-      <c r="G631" s="2"/>
+      <c r="E631" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F631" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="G631" s="1">
+        <v>119.99</v>
+      </c>
       <c r="H631" s="2"/>
       <c r="I631" s="2"/>
       <c r="J631" s="2"/>
@@ -25309,13 +25685,21 @@
       <c r="Y631" s="2"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
-      <c r="A632" s="2"/>
+      <c r="A632" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
-      <c r="E632" s="2"/>
-      <c r="F632" s="2"/>
-      <c r="G632" s="2"/>
+      <c r="E632" s="1">
+        <v>82.0</v>
+      </c>
+      <c r="F632" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G632" s="1">
+        <v>258.14</v>
+      </c>
       <c r="H632" s="2"/>
       <c r="I632" s="2"/>
       <c r="J632" s="2"/>
@@ -25336,13 +25720,21 @@
       <c r="Y632" s="2"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
-      <c r="A633" s="2"/>
+      <c r="A633" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
-      <c r="E633" s="2"/>
-      <c r="F633" s="2"/>
-      <c r="G633" s="2"/>
+      <c r="E633" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="F633" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="G633" s="1">
+        <v>185.27</v>
+      </c>
       <c r="H633" s="2"/>
       <c r="I633" s="2"/>
       <c r="J633" s="2"/>
@@ -25363,13 +25755,25 @@
       <c r="Y633" s="2"/>
     </row>
     <row r="634" ht="14.25" customHeight="1">
-      <c r="A634" s="2"/>
-      <c r="B634" s="2"/>
+      <c r="A634" s="7">
+        <v>43497.0</v>
+      </c>
+      <c r="B634" s="6">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="C634" s="2"/>
-      <c r="D634" s="2"/>
-      <c r="E634" s="2"/>
-      <c r="F634" s="2"/>
-      <c r="G634" s="2"/>
+      <c r="D634" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E634" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F634" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G634" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H634" s="2"/>
       <c r="I634" s="2"/>
       <c r="J634" s="2"/>
@@ -25390,13 +25794,23 @@
       <c r="Y634" s="2"/>
     </row>
     <row r="635" ht="14.25" customHeight="1">
-      <c r="A635" s="2"/>
-      <c r="B635" s="2"/>
+      <c r="A635" s="7">
+        <v>43497.0</v>
+      </c>
+      <c r="B635" s="6">
+        <v>0.5444444444444444</v>
+      </c>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
-      <c r="E635" s="2"/>
-      <c r="F635" s="2"/>
-      <c r="G635" s="2"/>
+      <c r="E635" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="F635" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G635" s="1">
+        <v>221.71</v>
+      </c>
       <c r="H635" s="2"/>
       <c r="I635" s="2"/>
       <c r="J635" s="2"/>
@@ -25417,13 +25831,21 @@
       <c r="Y635" s="2"/>
     </row>
     <row r="636" ht="14.25" customHeight="1">
-      <c r="A636" s="2"/>
+      <c r="A636" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
-      <c r="E636" s="2"/>
-      <c r="F636" s="2"/>
-      <c r="G636" s="2"/>
+      <c r="E636" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="F636" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G636" s="1">
+        <v>98.87</v>
+      </c>
       <c r="H636" s="2"/>
       <c r="I636" s="2"/>
       <c r="J636" s="2"/>
@@ -25444,13 +25866,21 @@
       <c r="Y636" s="2"/>
     </row>
     <row r="637" ht="14.25" customHeight="1">
-      <c r="A637" s="2"/>
+      <c r="A637" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
-      <c r="E637" s="2"/>
-      <c r="F637" s="2"/>
-      <c r="G637" s="2"/>
+      <c r="E637" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F637" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G637" s="1">
+        <v>272.18</v>
+      </c>
       <c r="H637" s="2"/>
       <c r="I637" s="2"/>
       <c r="J637" s="2"/>
@@ -25471,13 +25901,21 @@
       <c r="Y637" s="2"/>
     </row>
     <row r="638" ht="14.25" customHeight="1">
-      <c r="A638" s="2"/>
+      <c r="A638" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
-      <c r="E638" s="2"/>
-      <c r="F638" s="2"/>
-      <c r="G638" s="2"/>
+      <c r="E638" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F638" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G638" s="1">
+        <v>194.94</v>
+      </c>
       <c r="H638" s="2"/>
       <c r="I638" s="2"/>
       <c r="J638" s="2"/>
@@ -25498,13 +25936,21 @@
       <c r="Y638" s="2"/>
     </row>
     <row r="639" ht="14.25" customHeight="1">
-      <c r="A639" s="2"/>
+      <c r="A639" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
-      <c r="E639" s="2"/>
-      <c r="F639" s="2"/>
-      <c r="G639" s="2"/>
+      <c r="E639" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F639" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G639" s="1">
+        <v>206.53</v>
+      </c>
       <c r="H639" s="2"/>
       <c r="I639" s="2"/>
       <c r="J639" s="2"/>
@@ -25525,13 +25971,21 @@
       <c r="Y639" s="2"/>
     </row>
     <row r="640" ht="14.25" customHeight="1">
-      <c r="A640" s="2"/>
+      <c r="A640" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
-      <c r="E640" s="2"/>
-      <c r="F640" s="2"/>
-      <c r="G640" s="2"/>
+      <c r="E640" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="F640" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G640" s="1">
+        <v>291.94</v>
+      </c>
       <c r="H640" s="2"/>
       <c r="I640" s="2"/>
       <c r="J640" s="2"/>
@@ -25552,13 +26006,21 @@
       <c r="Y640" s="2"/>
     </row>
     <row r="641" ht="14.25" customHeight="1">
-      <c r="A641" s="2"/>
+      <c r="A641" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
-      <c r="E641" s="2"/>
-      <c r="F641" s="2"/>
-      <c r="G641" s="2"/>
+      <c r="E641" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="F641" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G641" s="1">
+        <v>181.23</v>
+      </c>
       <c r="H641" s="2"/>
       <c r="I641" s="2"/>
       <c r="J641" s="2"/>
@@ -25579,13 +26041,21 @@
       <c r="Y641" s="2"/>
     </row>
     <row r="642" ht="14.25" customHeight="1">
-      <c r="A642" s="2"/>
+      <c r="A642" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
-      <c r="E642" s="2"/>
-      <c r="F642" s="2"/>
-      <c r="G642" s="2"/>
+      <c r="E642" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="F642" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G642" s="1">
+        <v>168.43</v>
+      </c>
       <c r="H642" s="2"/>
       <c r="I642" s="2"/>
       <c r="J642" s="2"/>
@@ -25606,13 +26076,21 @@
       <c r="Y642" s="2"/>
     </row>
     <row r="643" ht="14.25" customHeight="1">
-      <c r="A643" s="2"/>
+      <c r="A643" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
-      <c r="E643" s="2"/>
-      <c r="F643" s="2"/>
-      <c r="G643" s="2"/>
+      <c r="E643" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="F643" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G643" s="1">
+        <v>93.08</v>
+      </c>
       <c r="H643" s="2"/>
       <c r="I643" s="2"/>
       <c r="J643" s="2"/>
@@ -25633,13 +26111,21 @@
       <c r="Y643" s="2"/>
     </row>
     <row r="644" ht="14.25" customHeight="1">
-      <c r="A644" s="2"/>
+      <c r="A644" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
-      <c r="E644" s="2"/>
-      <c r="F644" s="2"/>
-      <c r="G644" s="2"/>
+      <c r="E644" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="F644" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G644" s="1">
+        <v>191.72</v>
+      </c>
       <c r="H644" s="2"/>
       <c r="I644" s="2"/>
       <c r="J644" s="2"/>
@@ -25660,13 +26146,21 @@
       <c r="Y644" s="2"/>
     </row>
     <row r="645" ht="14.25" customHeight="1">
-      <c r="A645" s="2"/>
+      <c r="A645" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
-      <c r="E645" s="2"/>
-      <c r="F645" s="2"/>
-      <c r="G645" s="2"/>
+      <c r="E645" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F645" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G645" s="1">
+        <v>233.98</v>
+      </c>
       <c r="H645" s="2"/>
       <c r="I645" s="2"/>
       <c r="J645" s="2"/>
@@ -25687,13 +26181,21 @@
       <c r="Y645" s="2"/>
     </row>
     <row r="646" ht="14.25" customHeight="1">
-      <c r="A646" s="2"/>
+      <c r="A646" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
-      <c r="E646" s="2"/>
-      <c r="F646" s="2"/>
-      <c r="G646" s="2"/>
+      <c r="E646" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="F646" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G646" s="1">
+        <v>120.29</v>
+      </c>
       <c r="H646" s="2"/>
       <c r="I646" s="2"/>
       <c r="J646" s="2"/>
@@ -25714,13 +26216,21 @@
       <c r="Y646" s="2"/>
     </row>
     <row r="647" ht="14.25" customHeight="1">
-      <c r="A647" s="2"/>
+      <c r="A647" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
-      <c r="E647" s="2"/>
-      <c r="F647" s="2"/>
-      <c r="G647" s="2"/>
+      <c r="E647" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F647" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="G647" s="1">
+        <v>171.41</v>
+      </c>
       <c r="H647" s="2"/>
       <c r="I647" s="2"/>
       <c r="J647" s="2"/>
@@ -25741,13 +26251,21 @@
       <c r="Y647" s="2"/>
     </row>
     <row r="648" ht="14.25" customHeight="1">
-      <c r="A648" s="2"/>
+      <c r="A648" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
-      <c r="E648" s="2"/>
-      <c r="F648" s="2"/>
-      <c r="G648" s="2"/>
+      <c r="E648" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F648" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G648" s="1">
+        <v>204.95</v>
+      </c>
       <c r="H648" s="2"/>
       <c r="I648" s="2"/>
       <c r="J648" s="2"/>
@@ -25768,13 +26286,21 @@
       <c r="Y648" s="2"/>
     </row>
     <row r="649" ht="14.25" customHeight="1">
-      <c r="A649" s="2"/>
+      <c r="A649" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
-      <c r="E649" s="2"/>
-      <c r="F649" s="2"/>
-      <c r="G649" s="2"/>
+      <c r="E649" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="F649" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="G649" s="1">
+        <v>186.1</v>
+      </c>
       <c r="H649" s="2"/>
       <c r="I649" s="2"/>
       <c r="J649" s="2"/>
@@ -25795,13 +26321,25 @@
       <c r="Y649" s="2"/>
     </row>
     <row r="650" ht="14.25" customHeight="1">
-      <c r="A650" s="2"/>
-      <c r="B650" s="2"/>
+      <c r="A650" s="7">
+        <v>43497.0</v>
+      </c>
+      <c r="B650" s="6">
+        <v>0.5826388888888889</v>
+      </c>
       <c r="C650" s="2"/>
-      <c r="D650" s="2"/>
-      <c r="E650" s="2"/>
-      <c r="F650" s="2"/>
-      <c r="G650" s="2"/>
+      <c r="D650" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E650" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F650" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G650" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H650" s="2"/>
       <c r="I650" s="2"/>
       <c r="J650" s="2"/>
@@ -25822,13 +26360,23 @@
       <c r="Y650" s="2"/>
     </row>
     <row r="651" ht="14.25" customHeight="1">
-      <c r="A651" s="2"/>
-      <c r="B651" s="2"/>
+      <c r="A651" s="7">
+        <v>43497.0</v>
+      </c>
+      <c r="B651" s="6">
+        <v>0.5854166666666667</v>
+      </c>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
-      <c r="E651" s="2"/>
-      <c r="F651" s="2"/>
-      <c r="G651" s="2"/>
+      <c r="E651" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F651" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G651" s="1">
+        <v>197.94</v>
+      </c>
       <c r="H651" s="2"/>
       <c r="I651" s="2"/>
       <c r="J651" s="2"/>
@@ -25849,13 +26397,21 @@
       <c r="Y651" s="2"/>
     </row>
     <row r="652" ht="14.25" customHeight="1">
-      <c r="A652" s="2"/>
+      <c r="A652" s="7">
+        <v>43497.0</v>
+      </c>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
-      <c r="E652" s="2"/>
-      <c r="F652" s="2"/>
-      <c r="G652" s="2"/>
+      <c r="E652" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F652" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G652" s="1">
+        <v>214.44</v>
+      </c>
       <c r="H652" s="2"/>
       <c r="I652" s="2"/>
       <c r="J652" s="2"/>
@@ -25876,13 +26432,25 @@
       <c r="Y652" s="2"/>
     </row>
     <row r="653" ht="14.25" customHeight="1">
-      <c r="A653" s="2"/>
-      <c r="B653" s="2"/>
+      <c r="A653" s="7">
+        <v>43497.0</v>
+      </c>
+      <c r="B653" s="6">
+        <v>0.6305555555555555</v>
+      </c>
       <c r="C653" s="2"/>
-      <c r="D653" s="2"/>
-      <c r="E653" s="2"/>
-      <c r="F653" s="2"/>
-      <c r="G653" s="2"/>
+      <c r="D653" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E653" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F653" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G653" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H653" s="2"/>
       <c r="I653" s="2"/>
       <c r="J653" s="2"/>
@@ -35309,7 +35877,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -35317,7 +35885,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">

--- a/data/cpcrw-cores-picarro-mass-track.xlsx
+++ b/data/cpcrw-cores-picarro-mass-track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d3x290/Documents/Work/Current/Bailey SFA/2019/TES-drydown/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEB39F9-DBC7-3942-9D02-B46456E9B511}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3A392F-07E2-9A40-A9C6-5BA70C82039B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="24740" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,8 +699,8 @@
   <dimension ref="A1:Y1964"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A981" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G998" sqref="G998"/>
+      <pane ySplit="1" topLeftCell="A879" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G886" sqref="G886"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35675,7 +35675,7 @@
         <v>15</v>
       </c>
       <c r="G885" s="1">
-        <v>109.76</v>
+        <v>190.76</v>
       </c>
       <c r="H885" s="2"/>
       <c r="I885" s="2"/>
